--- a/src/main/java/uk/ac/standrews/cs/population_linkage/resolver/triangle_clusters.xlsx
+++ b/src/main/java/uk/ac/standrews/cs/population_linkage/resolver/triangle_clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/al/repos/github/population-linkage/src/main/java/uk/ac/standrews/cs/population_linkage/resolver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E52286-34F4-3B47-8E22-6A8BB3C18FC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56D231-5FD9-584D-8496-69D3DAB44B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36640" yWindow="10700" windowWidth="27240" windowHeight="16440" xr2:uid="{1A599B76-6D21-C545-833E-73C581B84FA2}"/>
+    <workbookView xWindow="22860" yWindow="6340" windowWidth="46960" windowHeight="31760" xr2:uid="{1A599B76-6D21-C545-833E-73C581B84FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="open Triangles" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Count</t>
   </si>
@@ -48,13 +39,28 @@
     <t>FN</t>
   </si>
   <si>
-    <t>Pre</t>
+    <t>F1</t>
   </si>
   <si>
-    <t>Rec</t>
+    <t xml:space="preserve">SiblingDeathClusterOpenTriangleResolver </t>
   </si>
   <si>
-    <t>F1</t>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>CLUSTER_ELIGIBLE_FOR_SPLIT_SIZE</t>
+  </si>
+  <si>
+    <t>LOW_DISTANCE_MATCH_THRESHOLD</t>
+  </si>
+  <si>
+    <t>HIGH_DISTANCE_REJECT_THRESHOLD</t>
+  </si>
+  <si>
+    <t>Cut count</t>
   </si>
 </sst>
 </file>
@@ -104,10 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,47 +429,7130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B618706-85FA-0047-9823-355308A552D5}">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:K256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>1890</v>
+      </c>
+      <c r="E4">
+        <v>7114</v>
+      </c>
+      <c r="F4">
+        <v>3270</v>
+      </c>
+      <c r="G4">
+        <v>3844</v>
+      </c>
+      <c r="H4">
+        <v>7402</v>
+      </c>
+      <c r="I4">
+        <v>0.46</v>
+      </c>
+      <c r="J4">
+        <v>0.31</v>
+      </c>
+      <c r="K4">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>1890</v>
+      </c>
+      <c r="E5">
+        <v>7138</v>
+      </c>
+      <c r="F5">
+        <v>3270</v>
+      </c>
+      <c r="G5">
+        <v>3868</v>
+      </c>
+      <c r="H5">
+        <v>7404</v>
+      </c>
+      <c r="I5">
+        <v>0.46</v>
+      </c>
+      <c r="J5">
+        <v>0.31</v>
+      </c>
+      <c r="K5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>1890</v>
+      </c>
+      <c r="E6">
+        <v>7364</v>
+      </c>
+      <c r="F6">
+        <v>3314</v>
+      </c>
+      <c r="G6">
+        <v>4050</v>
+      </c>
+      <c r="H6">
+        <v>7359</v>
+      </c>
+      <c r="I6">
+        <v>0.45</v>
+      </c>
+      <c r="J6">
+        <v>0.31</v>
+      </c>
+      <c r="K6">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>1890</v>
+      </c>
+      <c r="E7">
+        <v>9082</v>
+      </c>
+      <c r="F7">
+        <v>3464</v>
+      </c>
+      <c r="G7">
+        <v>5618</v>
+      </c>
+      <c r="H7">
+        <v>7209</v>
+      </c>
+      <c r="I7">
+        <v>0.38</v>
+      </c>
+      <c r="J7">
+        <v>0.32</v>
+      </c>
+      <c r="K7">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>1890</v>
+      </c>
+      <c r="E8">
+        <v>10062</v>
+      </c>
+      <c r="F8">
+        <v>3744</v>
+      </c>
+      <c r="G8">
+        <v>6318</v>
+      </c>
+      <c r="H8">
+        <v>6930</v>
+      </c>
+      <c r="I8">
+        <v>0.37</v>
+      </c>
+      <c r="J8">
+        <v>0.35</v>
+      </c>
+      <c r="K8">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.35</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>1890</v>
+      </c>
+      <c r="E9">
+        <v>13050</v>
+      </c>
+      <c r="F9">
+        <v>5749</v>
+      </c>
+      <c r="G9">
+        <v>7301</v>
+      </c>
+      <c r="H9">
+        <v>4926</v>
+      </c>
+      <c r="I9">
+        <v>0.44</v>
+      </c>
+      <c r="J9">
+        <v>0.54</v>
+      </c>
+      <c r="K9">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>1890</v>
+      </c>
+      <c r="E10">
+        <v>6252</v>
+      </c>
+      <c r="F10">
+        <v>3258</v>
+      </c>
+      <c r="G10">
+        <v>2994</v>
+      </c>
+      <c r="H10">
+        <v>7413</v>
+      </c>
+      <c r="I10">
+        <v>0.52</v>
+      </c>
+      <c r="J10">
+        <v>0.31</v>
+      </c>
+      <c r="K10">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.15</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>1890</v>
+      </c>
+      <c r="E11">
+        <v>6252</v>
+      </c>
+      <c r="F11">
+        <v>3258</v>
+      </c>
+      <c r="G11">
+        <v>2994</v>
+      </c>
+      <c r="H11">
+        <v>7415</v>
+      </c>
+      <c r="I11">
+        <v>0.52</v>
+      </c>
+      <c r="J11">
+        <v>0.31</v>
+      </c>
+      <c r="K11">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>1890</v>
+      </c>
+      <c r="E12">
+        <v>6478</v>
+      </c>
+      <c r="F12">
+        <v>3302</v>
+      </c>
+      <c r="G12">
+        <v>3176</v>
+      </c>
+      <c r="H12">
+        <v>7371</v>
+      </c>
+      <c r="I12">
+        <v>0.51</v>
+      </c>
+      <c r="J12">
+        <v>0.31</v>
+      </c>
+      <c r="K12">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>1890</v>
+      </c>
+      <c r="E13">
+        <v>7860</v>
+      </c>
+      <c r="F13">
+        <v>3452</v>
+      </c>
+      <c r="G13">
+        <v>4408</v>
+      </c>
+      <c r="H13">
+        <v>7222</v>
+      </c>
+      <c r="I13">
+        <v>0.44</v>
+      </c>
+      <c r="J13">
+        <v>0.32</v>
+      </c>
+      <c r="K13">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>1890</v>
+      </c>
+      <c r="E14">
+        <v>8840</v>
+      </c>
+      <c r="F14">
+        <v>3732</v>
+      </c>
+      <c r="G14">
+        <v>5108</v>
+      </c>
+      <c r="H14">
+        <v>6942</v>
+      </c>
+      <c r="I14">
+        <v>0.42</v>
+      </c>
+      <c r="J14">
+        <v>0.35</v>
+      </c>
+      <c r="K14">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.35</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>1890</v>
+      </c>
+      <c r="E15">
+        <v>11828</v>
+      </c>
+      <c r="F15">
+        <v>5733</v>
+      </c>
+      <c r="G15">
+        <v>6095</v>
+      </c>
+      <c r="H15">
+        <v>4938</v>
+      </c>
+      <c r="I15">
+        <v>0.48</v>
+      </c>
+      <c r="J15">
+        <v>0.54</v>
+      </c>
+      <c r="K15">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16">
+        <v>0.4</v>
+      </c>
+      <c r="D16">
+        <v>1890</v>
+      </c>
+      <c r="E16">
+        <v>2392</v>
+      </c>
+      <c r="F16">
+        <v>1686</v>
+      </c>
+      <c r="G16">
+        <v>706</v>
+      </c>
+      <c r="H16">
+        <v>8987</v>
+      </c>
+      <c r="I16">
+        <v>0.7</v>
+      </c>
+      <c r="J16">
+        <v>0.16</v>
+      </c>
+      <c r="K16">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.15</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17">
+        <v>1890</v>
+      </c>
+      <c r="E17">
+        <v>2392</v>
+      </c>
+      <c r="F17">
+        <v>1686</v>
+      </c>
+      <c r="G17">
+        <v>706</v>
+      </c>
+      <c r="H17">
+        <v>8986</v>
+      </c>
+      <c r="I17">
+        <v>0.7</v>
+      </c>
+      <c r="J17">
+        <v>0.16</v>
+      </c>
+      <c r="K17">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>1890</v>
+      </c>
+      <c r="E18">
+        <v>2488</v>
+      </c>
+      <c r="F18">
+        <v>1698</v>
+      </c>
+      <c r="G18">
+        <v>790</v>
+      </c>
+      <c r="H18">
+        <v>8974</v>
+      </c>
+      <c r="I18">
+        <v>0.68</v>
+      </c>
+      <c r="J18">
+        <v>0.16</v>
+      </c>
+      <c r="K18">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0.25</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <v>1890</v>
+      </c>
+      <c r="E19">
+        <v>3528</v>
+      </c>
+      <c r="F19">
+        <v>1800</v>
+      </c>
+      <c r="G19">
+        <v>1728</v>
+      </c>
+      <c r="H19">
+        <v>8870</v>
+      </c>
+      <c r="I19">
+        <v>0.51</v>
+      </c>
+      <c r="J19">
+        <v>0.17</v>
+      </c>
+      <c r="K19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>1890</v>
+      </c>
+      <c r="E20">
+        <v>4222</v>
+      </c>
+      <c r="F20">
+        <v>2032</v>
+      </c>
+      <c r="G20">
+        <v>2190</v>
+      </c>
+      <c r="H20">
+        <v>8641</v>
+      </c>
+      <c r="I20">
+        <v>0.48</v>
+      </c>
+      <c r="J20">
+        <v>0.19</v>
+      </c>
+      <c r="K20">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0.35</v>
+      </c>
+      <c r="C21">
+        <v>0.4</v>
+      </c>
+      <c r="D21">
+        <v>1890</v>
+      </c>
+      <c r="E21">
+        <v>6982</v>
+      </c>
+      <c r="F21">
+        <v>4024</v>
+      </c>
+      <c r="G21">
+        <v>2958</v>
+      </c>
+      <c r="H21">
+        <v>6648</v>
+      </c>
+      <c r="I21">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.38</v>
+      </c>
+      <c r="K21">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>1890</v>
+      </c>
+      <c r="E22">
+        <v>1552</v>
+      </c>
+      <c r="F22">
+        <v>1382</v>
+      </c>
+      <c r="G22">
+        <v>170</v>
+      </c>
+      <c r="H22">
+        <v>9292</v>
+      </c>
+      <c r="I22">
+        <v>0.89</v>
+      </c>
+      <c r="J22">
+        <v>0.13</v>
+      </c>
+      <c r="K22">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.15</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>1890</v>
+      </c>
+      <c r="E23">
+        <v>1552</v>
+      </c>
+      <c r="F23">
+        <v>1382</v>
+      </c>
+      <c r="G23">
+        <v>170</v>
+      </c>
+      <c r="H23">
+        <v>9291</v>
+      </c>
+      <c r="I23">
+        <v>0.89</v>
+      </c>
+      <c r="J23">
+        <v>0.13</v>
+      </c>
+      <c r="K23">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0.2</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>1890</v>
+      </c>
+      <c r="E24">
+        <v>1640</v>
+      </c>
+      <c r="F24">
+        <v>1394</v>
+      </c>
+      <c r="G24">
+        <v>246</v>
+      </c>
+      <c r="H24">
+        <v>9277</v>
+      </c>
+      <c r="I24">
+        <v>0.85</v>
+      </c>
+      <c r="J24">
+        <v>0.13</v>
+      </c>
+      <c r="K24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>1890</v>
+      </c>
+      <c r="E25">
+        <v>1936</v>
+      </c>
+      <c r="F25">
+        <v>1496</v>
+      </c>
+      <c r="G25">
+        <v>440</v>
+      </c>
+      <c r="H25">
+        <v>9177</v>
+      </c>
+      <c r="I25">
+        <v>0.77</v>
+      </c>
+      <c r="J25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.3</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>1890</v>
+      </c>
+      <c r="E26">
+        <v>2054</v>
+      </c>
+      <c r="F26">
+        <v>1538</v>
+      </c>
+      <c r="G26">
+        <v>516</v>
+      </c>
+      <c r="H26">
+        <v>9137</v>
+      </c>
+      <c r="I26">
+        <v>0.75</v>
+      </c>
+      <c r="J26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0.35</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>1890</v>
+      </c>
+      <c r="E27">
+        <v>3032</v>
+      </c>
+      <c r="F27">
+        <v>2304</v>
+      </c>
+      <c r="G27">
+        <v>728</v>
+      </c>
+      <c r="H27">
+        <v>8368</v>
+      </c>
+      <c r="I27">
+        <v>0.76</v>
+      </c>
+      <c r="J27">
+        <v>0.22</v>
+      </c>
+      <c r="K27">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28">
+        <v>0.6</v>
+      </c>
+      <c r="D28">
+        <v>1890</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>10672</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0.15</v>
+      </c>
+      <c r="C29">
+        <v>0.6</v>
+      </c>
+      <c r="D29">
+        <v>1890</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>10674</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0.2</v>
+      </c>
+      <c r="C30">
+        <v>0.6</v>
+      </c>
+      <c r="D30">
+        <v>1890</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>10671</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.25</v>
+      </c>
+      <c r="C31">
+        <v>0.6</v>
+      </c>
+      <c r="D31">
+        <v>1890</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>10674</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.3</v>
+      </c>
+      <c r="C32">
+        <v>0.6</v>
+      </c>
+      <c r="D32">
+        <v>1890</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>10663</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0.35</v>
+      </c>
+      <c r="C33">
+        <v>0.6</v>
+      </c>
+      <c r="D33">
+        <v>1890</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>10659</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>0.7</v>
+      </c>
+      <c r="D34">
+        <v>1890</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>10674</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>0.15</v>
+      </c>
+      <c r="C35">
+        <v>0.7</v>
+      </c>
+      <c r="D35">
+        <v>1890</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>10672</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>0.2</v>
+      </c>
+      <c r="C36">
+        <v>0.7</v>
+      </c>
+      <c r="D36">
+        <v>1890</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>10672</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0.25</v>
+      </c>
+      <c r="C37">
+        <v>0.7</v>
+      </c>
+      <c r="D37">
+        <v>1890</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>10674</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>0.3</v>
+      </c>
+      <c r="C38">
+        <v>0.7</v>
+      </c>
+      <c r="D38">
+        <v>1890</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>10672</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>0.35</v>
+      </c>
+      <c r="C39">
+        <v>0.7</v>
+      </c>
+      <c r="D39">
+        <v>1890</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>10672</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0.1</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+      <c r="D40">
+        <v>1890</v>
+      </c>
+      <c r="E40">
+        <v>6160</v>
+      </c>
+      <c r="F40">
+        <v>3134</v>
+      </c>
+      <c r="G40">
+        <v>3026</v>
+      </c>
+      <c r="H40">
+        <v>6754</v>
+      </c>
+      <c r="I40">
+        <v>0.51</v>
+      </c>
+      <c r="J40">
+        <v>0.32</v>
+      </c>
+      <c r="K40">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>0.15</v>
+      </c>
+      <c r="C41">
+        <v>0.2</v>
+      </c>
+      <c r="D41">
+        <v>1890</v>
+      </c>
+      <c r="E41">
+        <v>6160</v>
+      </c>
+      <c r="F41">
+        <v>3134</v>
+      </c>
+      <c r="G41">
+        <v>3026</v>
+      </c>
+      <c r="H41">
+        <v>6754</v>
+      </c>
+      <c r="I41">
+        <v>0.51</v>
+      </c>
+      <c r="J41">
+        <v>0.32</v>
+      </c>
+      <c r="K41">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0.2</v>
+      </c>
+      <c r="C42">
+        <v>0.2</v>
+      </c>
+      <c r="D42">
+        <v>1890</v>
+      </c>
+      <c r="E42">
+        <v>6330</v>
+      </c>
+      <c r="F42">
+        <v>3174</v>
+      </c>
+      <c r="G42">
+        <v>3156</v>
+      </c>
+      <c r="H42">
+        <v>6714</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.32</v>
+      </c>
+      <c r="K42">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>0.25</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+      <c r="D43">
+        <v>1890</v>
+      </c>
+      <c r="E43">
+        <v>7936</v>
+      </c>
+      <c r="F43">
+        <v>3322</v>
+      </c>
+      <c r="G43">
+        <v>4614</v>
+      </c>
+      <c r="H43">
+        <v>6566</v>
+      </c>
+      <c r="I43">
+        <v>0.42</v>
+      </c>
+      <c r="J43">
+        <v>0.34</v>
+      </c>
+      <c r="K43">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>0.3</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+      <c r="D44">
+        <v>1890</v>
+      </c>
+      <c r="E44">
+        <v>8604</v>
+      </c>
+      <c r="F44">
+        <v>3492</v>
+      </c>
+      <c r="G44">
+        <v>5112</v>
+      </c>
+      <c r="H44">
+        <v>6396</v>
+      </c>
+      <c r="I44">
+        <v>0.41</v>
+      </c>
+      <c r="J44">
+        <v>0.35</v>
+      </c>
+      <c r="K44">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>0.35</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+      <c r="D45">
+        <v>1890</v>
+      </c>
+      <c r="E45">
+        <v>11148</v>
+      </c>
+      <c r="F45">
+        <v>5312</v>
+      </c>
+      <c r="G45">
+        <v>5836</v>
+      </c>
+      <c r="H45">
+        <v>4576</v>
+      </c>
+      <c r="I45">
+        <v>0.48</v>
+      </c>
+      <c r="J45">
+        <v>0.54</v>
+      </c>
+      <c r="K45">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>0.1</v>
+      </c>
+      <c r="C46">
+        <v>0.3</v>
+      </c>
+      <c r="D46">
+        <v>1890</v>
+      </c>
+      <c r="E46">
+        <v>5574</v>
+      </c>
+      <c r="F46">
+        <v>3134</v>
+      </c>
+      <c r="G46">
+        <v>2440</v>
+      </c>
+      <c r="H46">
+        <v>6754</v>
+      </c>
+      <c r="I46">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J46">
+        <v>0.32</v>
+      </c>
+      <c r="K46">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>0.15</v>
+      </c>
+      <c r="C47">
+        <v>0.3</v>
+      </c>
+      <c r="D47">
+        <v>1890</v>
+      </c>
+      <c r="E47">
+        <v>5574</v>
+      </c>
+      <c r="F47">
+        <v>3134</v>
+      </c>
+      <c r="G47">
+        <v>2440</v>
+      </c>
+      <c r="H47">
+        <v>6754</v>
+      </c>
+      <c r="I47">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J47">
+        <v>0.32</v>
+      </c>
+      <c r="K47">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>0.2</v>
+      </c>
+      <c r="C48">
+        <v>0.3</v>
+      </c>
+      <c r="D48">
+        <v>1890</v>
+      </c>
+      <c r="E48">
+        <v>5744</v>
+      </c>
+      <c r="F48">
+        <v>3174</v>
+      </c>
+      <c r="G48">
+        <v>2570</v>
+      </c>
+      <c r="H48">
+        <v>6714</v>
+      </c>
+      <c r="I48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J48">
+        <v>0.32</v>
+      </c>
+      <c r="K48">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>0.25</v>
+      </c>
+      <c r="C49">
+        <v>0.3</v>
+      </c>
+      <c r="D49">
+        <v>1890</v>
+      </c>
+      <c r="E49">
+        <v>7014</v>
+      </c>
+      <c r="F49">
+        <v>3322</v>
+      </c>
+      <c r="G49">
+        <v>3692</v>
+      </c>
+      <c r="H49">
+        <v>6566</v>
+      </c>
+      <c r="I49">
+        <v>0.47</v>
+      </c>
+      <c r="J49">
+        <v>0.34</v>
+      </c>
+      <c r="K49">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>0.3</v>
+      </c>
+      <c r="C50">
+        <v>0.3</v>
+      </c>
+      <c r="D50">
+        <v>1890</v>
+      </c>
+      <c r="E50">
+        <v>7682</v>
+      </c>
+      <c r="F50">
+        <v>3492</v>
+      </c>
+      <c r="G50">
+        <v>4190</v>
+      </c>
+      <c r="H50">
+        <v>6396</v>
+      </c>
+      <c r="I50">
+        <v>0.45</v>
+      </c>
+      <c r="J50">
+        <v>0.35</v>
+      </c>
+      <c r="K50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>0.35</v>
+      </c>
+      <c r="C51">
+        <v>0.3</v>
+      </c>
+      <c r="D51">
+        <v>1890</v>
+      </c>
+      <c r="E51">
+        <v>10226</v>
+      </c>
+      <c r="F51">
+        <v>5312</v>
+      </c>
+      <c r="G51">
+        <v>4914</v>
+      </c>
+      <c r="H51">
+        <v>4576</v>
+      </c>
+      <c r="I51">
+        <v>0.52</v>
+      </c>
+      <c r="J51">
+        <v>0.54</v>
+      </c>
+      <c r="K51">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>0.1</v>
+      </c>
+      <c r="C52">
+        <v>0.4</v>
+      </c>
+      <c r="D52">
+        <v>1890</v>
+      </c>
+      <c r="E52">
+        <v>2182</v>
+      </c>
+      <c r="F52">
+        <v>1586</v>
+      </c>
+      <c r="G52">
+        <v>596</v>
+      </c>
+      <c r="H52">
+        <v>8302</v>
+      </c>
+      <c r="I52">
+        <v>0.73</v>
+      </c>
+      <c r="J52">
+        <v>0.16</v>
+      </c>
+      <c r="K52">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>0.15</v>
+      </c>
+      <c r="C53">
+        <v>0.4</v>
+      </c>
+      <c r="D53">
+        <v>1890</v>
+      </c>
+      <c r="E53">
+        <v>2182</v>
+      </c>
+      <c r="F53">
+        <v>1586</v>
+      </c>
+      <c r="G53">
+        <v>596</v>
+      </c>
+      <c r="H53">
+        <v>8302</v>
+      </c>
+      <c r="I53">
+        <v>0.73</v>
+      </c>
+      <c r="J53">
+        <v>0.16</v>
+      </c>
+      <c r="K53">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>0.2</v>
+      </c>
+      <c r="C54">
+        <v>0.4</v>
+      </c>
+      <c r="D54">
+        <v>1890</v>
+      </c>
+      <c r="E54">
+        <v>2270</v>
+      </c>
+      <c r="F54">
+        <v>1594</v>
+      </c>
+      <c r="G54">
+        <v>676</v>
+      </c>
+      <c r="H54">
+        <v>8294</v>
+      </c>
+      <c r="I54">
+        <v>0.7</v>
+      </c>
+      <c r="J54">
+        <v>0.16</v>
+      </c>
+      <c r="K54">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>0.25</v>
+      </c>
+      <c r="C55">
+        <v>0.4</v>
+      </c>
+      <c r="D55">
+        <v>1890</v>
+      </c>
+      <c r="E55">
+        <v>3234</v>
+      </c>
+      <c r="F55">
+        <v>1694</v>
+      </c>
+      <c r="G55">
+        <v>1540</v>
+      </c>
+      <c r="H55">
+        <v>8194</v>
+      </c>
+      <c r="I55">
+        <v>0.52</v>
+      </c>
+      <c r="J55">
+        <v>0.17</v>
+      </c>
+      <c r="K55">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>0.3</v>
+      </c>
+      <c r="C56">
+        <v>0.4</v>
+      </c>
+      <c r="D56">
+        <v>1890</v>
+      </c>
+      <c r="E56">
+        <v>3740</v>
+      </c>
+      <c r="F56">
+        <v>1864</v>
+      </c>
+      <c r="G56">
+        <v>1876</v>
+      </c>
+      <c r="H56">
+        <v>8024</v>
+      </c>
+      <c r="I56">
+        <v>0.5</v>
+      </c>
+      <c r="J56">
+        <v>0.19</v>
+      </c>
+      <c r="K56">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>0.35</v>
+      </c>
+      <c r="C57">
+        <v>0.4</v>
+      </c>
+      <c r="D57">
+        <v>1890</v>
+      </c>
+      <c r="E57">
+        <v>6152</v>
+      </c>
+      <c r="F57">
+        <v>3684</v>
+      </c>
+      <c r="G57">
+        <v>2468</v>
+      </c>
+      <c r="H57">
+        <v>6204</v>
+      </c>
+      <c r="I57">
+        <v>0.6</v>
+      </c>
+      <c r="J57">
+        <v>0.37</v>
+      </c>
+      <c r="K57">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>0.1</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="D58">
+        <v>1890</v>
+      </c>
+      <c r="E58">
+        <v>1504</v>
+      </c>
+      <c r="F58">
+        <v>1342</v>
+      </c>
+      <c r="G58">
+        <v>162</v>
+      </c>
+      <c r="H58">
+        <v>8546</v>
+      </c>
+      <c r="I58">
+        <v>0.89</v>
+      </c>
+      <c r="J58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K58">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>0.15</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="D59">
+        <v>1890</v>
+      </c>
+      <c r="E59">
+        <v>1504</v>
+      </c>
+      <c r="F59">
+        <v>1342</v>
+      </c>
+      <c r="G59">
+        <v>162</v>
+      </c>
+      <c r="H59">
+        <v>8546</v>
+      </c>
+      <c r="I59">
+        <v>0.89</v>
+      </c>
+      <c r="J59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K59">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>0.2</v>
+      </c>
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+      <c r="D60">
+        <v>1890</v>
+      </c>
+      <c r="E60">
+        <v>1584</v>
+      </c>
+      <c r="F60">
+        <v>1350</v>
+      </c>
+      <c r="G60">
+        <v>234</v>
+      </c>
+      <c r="H60">
+        <v>8538</v>
+      </c>
+      <c r="I60">
+        <v>0.85</v>
+      </c>
+      <c r="J60">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K60">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>0.25</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61">
+        <v>1890</v>
+      </c>
+      <c r="E61">
+        <v>1874</v>
+      </c>
+      <c r="F61">
+        <v>1450</v>
+      </c>
+      <c r="G61">
+        <v>424</v>
+      </c>
+      <c r="H61">
+        <v>8438</v>
+      </c>
+      <c r="I61">
+        <v>0.77</v>
+      </c>
+      <c r="J61">
+        <v>0.15</v>
+      </c>
+      <c r="K61">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>0.3</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>1890</v>
+      </c>
+      <c r="E62">
+        <v>1968</v>
+      </c>
+      <c r="F62">
+        <v>1482</v>
+      </c>
+      <c r="G62">
+        <v>486</v>
+      </c>
+      <c r="H62">
+        <v>8406</v>
+      </c>
+      <c r="I62">
+        <v>0.75</v>
+      </c>
+      <c r="J62">
+        <v>0.15</v>
+      </c>
+      <c r="K62">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>0.35</v>
+      </c>
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="D63">
+        <v>1890</v>
+      </c>
+      <c r="E63">
+        <v>2920</v>
+      </c>
+      <c r="F63">
+        <v>2240</v>
+      </c>
+      <c r="G63">
+        <v>680</v>
+      </c>
+      <c r="H63">
+        <v>7648</v>
+      </c>
+      <c r="I63">
+        <v>0.77</v>
+      </c>
+      <c r="J63">
+        <v>0.23</v>
+      </c>
+      <c r="K63">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>0.1</v>
+      </c>
+      <c r="C64">
+        <v>0.6</v>
+      </c>
+      <c r="D64">
+        <v>1890</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>9888</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>0.15</v>
+      </c>
+      <c r="C65">
+        <v>0.6</v>
+      </c>
+      <c r="D65">
+        <v>1890</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>9888</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>0.2</v>
+      </c>
+      <c r="C66">
+        <v>0.6</v>
+      </c>
+      <c r="D66">
+        <v>1890</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>9888</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>0.25</v>
+      </c>
+      <c r="C67">
+        <v>0.6</v>
+      </c>
+      <c r="D67">
+        <v>1890</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>9888</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>0.3</v>
+      </c>
+      <c r="C68">
+        <v>0.6</v>
+      </c>
+      <c r="D68">
+        <v>1890</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>9880</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>0.35</v>
+      </c>
+      <c r="C69">
+        <v>0.6</v>
+      </c>
+      <c r="D69">
+        <v>1890</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>9876</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>0.1</v>
+      </c>
+      <c r="C70">
+        <v>0.7</v>
+      </c>
+      <c r="D70">
+        <v>1890</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>9888</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>0.15</v>
+      </c>
+      <c r="C71">
+        <v>0.7</v>
+      </c>
+      <c r="D71">
+        <v>1890</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>9888</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>0.2</v>
+      </c>
+      <c r="C72">
+        <v>0.7</v>
+      </c>
+      <c r="D72">
+        <v>1890</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>9888</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>0.25</v>
+      </c>
+      <c r="C73">
+        <v>0.7</v>
+      </c>
+      <c r="D73">
+        <v>1890</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>9888</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>0.3</v>
+      </c>
+      <c r="C74">
+        <v>0.7</v>
+      </c>
+      <c r="D74">
+        <v>1890</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>9888</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>0.35</v>
+      </c>
+      <c r="C75">
+        <v>0.7</v>
+      </c>
+      <c r="D75">
+        <v>1890</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>9888</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>0.1</v>
+      </c>
+      <c r="C76">
+        <v>0.2</v>
+      </c>
+      <c r="D76">
+        <v>1890</v>
+      </c>
+      <c r="E76">
+        <v>3832</v>
+      </c>
+      <c r="F76">
+        <v>2158</v>
+      </c>
+      <c r="G76">
+        <v>1674</v>
+      </c>
+      <c r="H76">
+        <v>6162</v>
+      </c>
+      <c r="I76">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J76">
+        <v>0.26</v>
+      </c>
+      <c r="K76">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>0.15</v>
+      </c>
+      <c r="C77">
+        <v>0.2</v>
+      </c>
+      <c r="D77">
+        <v>1890</v>
+      </c>
+      <c r="E77">
+        <v>3832</v>
+      </c>
+      <c r="F77">
+        <v>2158</v>
+      </c>
+      <c r="G77">
+        <v>1674</v>
+      </c>
+      <c r="H77">
+        <v>6162</v>
+      </c>
+      <c r="I77">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J77">
+        <v>0.26</v>
+      </c>
+      <c r="K77">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>0.2</v>
+      </c>
+      <c r="C78">
+        <v>0.2</v>
+      </c>
+      <c r="D78">
+        <v>1890</v>
+      </c>
+      <c r="E78">
+        <v>3904</v>
+      </c>
+      <c r="F78">
+        <v>2158</v>
+      </c>
+      <c r="G78">
+        <v>1746</v>
+      </c>
+      <c r="H78">
+        <v>6162</v>
+      </c>
+      <c r="I78">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J78">
+        <v>0.26</v>
+      </c>
+      <c r="K78">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>0.25</v>
+      </c>
+      <c r="C79">
+        <v>0.2</v>
+      </c>
+      <c r="D79">
+        <v>1890</v>
+      </c>
+      <c r="E79">
+        <v>5174</v>
+      </c>
+      <c r="F79">
+        <v>2250</v>
+      </c>
+      <c r="G79">
+        <v>2924</v>
+      </c>
+      <c r="H79">
+        <v>6070</v>
+      </c>
+      <c r="I79">
+        <v>0.43</v>
+      </c>
+      <c r="J79">
+        <v>0.27</v>
+      </c>
+      <c r="K79">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>0.3</v>
+      </c>
+      <c r="C80">
+        <v>0.2</v>
+      </c>
+      <c r="D80">
+        <v>1890</v>
+      </c>
+      <c r="E80">
+        <v>5514</v>
+      </c>
+      <c r="F80">
+        <v>2274</v>
+      </c>
+      <c r="G80">
+        <v>3240</v>
+      </c>
+      <c r="H80">
+        <v>6046</v>
+      </c>
+      <c r="I80">
+        <v>0.41</v>
+      </c>
+      <c r="J80">
+        <v>0.27</v>
+      </c>
+      <c r="K80">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>0.35</v>
+      </c>
+      <c r="C81">
+        <v>0.2</v>
+      </c>
+      <c r="D81">
+        <v>1890</v>
+      </c>
+      <c r="E81">
+        <v>7710</v>
+      </c>
+      <c r="F81">
+        <v>3856</v>
+      </c>
+      <c r="G81">
+        <v>3854</v>
+      </c>
+      <c r="H81">
+        <v>4464</v>
+      </c>
+      <c r="I81">
+        <v>0.5</v>
+      </c>
+      <c r="J81">
+        <v>0.46</v>
+      </c>
+      <c r="K81">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>0.1</v>
+      </c>
+      <c r="C82">
+        <v>0.3</v>
+      </c>
+      <c r="D82">
+        <v>1890</v>
+      </c>
+      <c r="E82">
+        <v>3672</v>
+      </c>
+      <c r="F82">
+        <v>2158</v>
+      </c>
+      <c r="G82">
+        <v>1514</v>
+      </c>
+      <c r="H82">
+        <v>6162</v>
+      </c>
+      <c r="I82">
+        <v>0.59</v>
+      </c>
+      <c r="J82">
+        <v>0.26</v>
+      </c>
+      <c r="K82">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>0.15</v>
+      </c>
+      <c r="C83">
+        <v>0.3</v>
+      </c>
+      <c r="D83">
+        <v>1890</v>
+      </c>
+      <c r="E83">
+        <v>3672</v>
+      </c>
+      <c r="F83">
+        <v>2158</v>
+      </c>
+      <c r="G83">
+        <v>1514</v>
+      </c>
+      <c r="H83">
+        <v>6162</v>
+      </c>
+      <c r="I83">
+        <v>0.59</v>
+      </c>
+      <c r="J83">
+        <v>0.26</v>
+      </c>
+      <c r="K83">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>0.2</v>
+      </c>
+      <c r="C84">
+        <v>0.3</v>
+      </c>
+      <c r="D84">
+        <v>1890</v>
+      </c>
+      <c r="E84">
+        <v>3744</v>
+      </c>
+      <c r="F84">
+        <v>2158</v>
+      </c>
+      <c r="G84">
+        <v>1586</v>
+      </c>
+      <c r="H84">
+        <v>6162</v>
+      </c>
+      <c r="I84">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J84">
+        <v>0.26</v>
+      </c>
+      <c r="K84">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>0.25</v>
+      </c>
+      <c r="C85">
+        <v>0.3</v>
+      </c>
+      <c r="D85">
+        <v>1890</v>
+      </c>
+      <c r="E85">
+        <v>4678</v>
+      </c>
+      <c r="F85">
+        <v>2250</v>
+      </c>
+      <c r="G85">
+        <v>2428</v>
+      </c>
+      <c r="H85">
+        <v>6070</v>
+      </c>
+      <c r="I85">
+        <v>0.48</v>
+      </c>
+      <c r="J85">
+        <v>0.27</v>
+      </c>
+      <c r="K85">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>0.3</v>
+      </c>
+      <c r="C86">
+        <v>0.3</v>
+      </c>
+      <c r="D86">
+        <v>1890</v>
+      </c>
+      <c r="E86">
+        <v>5018</v>
+      </c>
+      <c r="F86">
+        <v>2274</v>
+      </c>
+      <c r="G86">
+        <v>2744</v>
+      </c>
+      <c r="H86">
+        <v>6046</v>
+      </c>
+      <c r="I86">
+        <v>0.45</v>
+      </c>
+      <c r="J86">
+        <v>0.27</v>
+      </c>
+      <c r="K86">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>0.35</v>
+      </c>
+      <c r="C87">
+        <v>0.3</v>
+      </c>
+      <c r="D87">
+        <v>1890</v>
+      </c>
+      <c r="E87">
+        <v>7214</v>
+      </c>
+      <c r="F87">
+        <v>3856</v>
+      </c>
+      <c r="G87">
+        <v>3358</v>
+      </c>
+      <c r="H87">
+        <v>4464</v>
+      </c>
+      <c r="I87">
+        <v>0.53</v>
+      </c>
+      <c r="J87">
+        <v>0.46</v>
+      </c>
+      <c r="K87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>0.1</v>
+      </c>
+      <c r="C88">
+        <v>0.4</v>
+      </c>
+      <c r="D88">
+        <v>1890</v>
+      </c>
+      <c r="E88">
+        <v>1532</v>
+      </c>
+      <c r="F88">
+        <v>1150</v>
+      </c>
+      <c r="G88">
+        <v>382</v>
+      </c>
+      <c r="H88">
+        <v>7170</v>
+      </c>
+      <c r="I88">
+        <v>0.75</v>
+      </c>
+      <c r="J88">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K88">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>0.15</v>
+      </c>
+      <c r="C89">
+        <v>0.4</v>
+      </c>
+      <c r="D89">
+        <v>1890</v>
+      </c>
+      <c r="E89">
+        <v>1532</v>
+      </c>
+      <c r="F89">
+        <v>1150</v>
+      </c>
+      <c r="G89">
+        <v>382</v>
+      </c>
+      <c r="H89">
+        <v>7170</v>
+      </c>
+      <c r="I89">
+        <v>0.75</v>
+      </c>
+      <c r="J89">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K89">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>0.2</v>
+      </c>
+      <c r="C90">
+        <v>0.4</v>
+      </c>
+      <c r="D90">
+        <v>1890</v>
+      </c>
+      <c r="E90">
+        <v>1604</v>
+      </c>
+      <c r="F90">
+        <v>1150</v>
+      </c>
+      <c r="G90">
+        <v>454</v>
+      </c>
+      <c r="H90">
+        <v>7170</v>
+      </c>
+      <c r="I90">
+        <v>0.72</v>
+      </c>
+      <c r="J90">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K90">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>0.25</v>
+      </c>
+      <c r="C91">
+        <v>0.4</v>
+      </c>
+      <c r="D91">
+        <v>1890</v>
+      </c>
+      <c r="E91">
+        <v>2538</v>
+      </c>
+      <c r="F91">
+        <v>1242</v>
+      </c>
+      <c r="G91">
+        <v>1296</v>
+      </c>
+      <c r="H91">
+        <v>7078</v>
+      </c>
+      <c r="I91">
+        <v>0.49</v>
+      </c>
+      <c r="J91">
+        <v>0.15</v>
+      </c>
+      <c r="K91">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>0.3</v>
+      </c>
+      <c r="C92">
+        <v>0.4</v>
+      </c>
+      <c r="D92">
+        <v>1890</v>
+      </c>
+      <c r="E92">
+        <v>2734</v>
+      </c>
+      <c r="F92">
+        <v>1266</v>
+      </c>
+      <c r="G92">
+        <v>1468</v>
+      </c>
+      <c r="H92">
+        <v>7054</v>
+      </c>
+      <c r="I92">
+        <v>0.46</v>
+      </c>
+      <c r="J92">
+        <v>0.15</v>
+      </c>
+      <c r="K92">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>0.35</v>
+      </c>
+      <c r="C93">
+        <v>0.4</v>
+      </c>
+      <c r="D93">
+        <v>1890</v>
+      </c>
+      <c r="E93">
+        <v>4834</v>
+      </c>
+      <c r="F93">
+        <v>2848</v>
+      </c>
+      <c r="G93">
+        <v>1986</v>
+      </c>
+      <c r="H93">
+        <v>5472</v>
+      </c>
+      <c r="I93">
+        <v>0.59</v>
+      </c>
+      <c r="J93">
+        <v>0.34</v>
+      </c>
+      <c r="K93">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>0.1</v>
+      </c>
+      <c r="C94">
+        <v>0.5</v>
+      </c>
+      <c r="D94">
+        <v>1890</v>
+      </c>
+      <c r="E94">
+        <v>1170</v>
+      </c>
+      <c r="F94">
+        <v>1022</v>
+      </c>
+      <c r="G94">
+        <v>148</v>
+      </c>
+      <c r="H94">
+        <v>7298</v>
+      </c>
+      <c r="I94">
+        <v>0.87</v>
+      </c>
+      <c r="J94">
+        <v>0.12</v>
+      </c>
+      <c r="K94">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>0.15</v>
+      </c>
+      <c r="C95">
+        <v>0.5</v>
+      </c>
+      <c r="D95">
+        <v>1890</v>
+      </c>
+      <c r="E95">
+        <v>1170</v>
+      </c>
+      <c r="F95">
+        <v>1022</v>
+      </c>
+      <c r="G95">
+        <v>148</v>
+      </c>
+      <c r="H95">
+        <v>7298</v>
+      </c>
+      <c r="I95">
+        <v>0.87</v>
+      </c>
+      <c r="J95">
+        <v>0.12</v>
+      </c>
+      <c r="K95">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>0.2</v>
+      </c>
+      <c r="C96">
+        <v>0.5</v>
+      </c>
+      <c r="D96">
+        <v>1890</v>
+      </c>
+      <c r="E96">
+        <v>1242</v>
+      </c>
+      <c r="F96">
+        <v>1022</v>
+      </c>
+      <c r="G96">
+        <v>220</v>
+      </c>
+      <c r="H96">
+        <v>7298</v>
+      </c>
+      <c r="I96">
+        <v>0.82</v>
+      </c>
+      <c r="J96">
+        <v>0.12</v>
+      </c>
+      <c r="K96">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>0.25</v>
+      </c>
+      <c r="C97">
+        <v>0.5</v>
+      </c>
+      <c r="D97">
+        <v>1890</v>
+      </c>
+      <c r="E97">
+        <v>1520</v>
+      </c>
+      <c r="F97">
+        <v>1114</v>
+      </c>
+      <c r="G97">
+        <v>406</v>
+      </c>
+      <c r="H97">
+        <v>7206</v>
+      </c>
+      <c r="I97">
+        <v>0.73</v>
+      </c>
+      <c r="J97">
+        <v>0.13</v>
+      </c>
+      <c r="K97">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>0.3</v>
+      </c>
+      <c r="C98">
+        <v>0.5</v>
+      </c>
+      <c r="D98">
+        <v>1890</v>
+      </c>
+      <c r="E98">
+        <v>1594</v>
+      </c>
+      <c r="F98">
+        <v>1138</v>
+      </c>
+      <c r="G98">
+        <v>456</v>
+      </c>
+      <c r="H98">
+        <v>7182</v>
+      </c>
+      <c r="I98">
+        <v>0.71</v>
+      </c>
+      <c r="J98">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K98">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>0.35</v>
+      </c>
+      <c r="C99">
+        <v>0.5</v>
+      </c>
+      <c r="D99">
+        <v>1890</v>
+      </c>
+      <c r="E99">
+        <v>2394</v>
+      </c>
+      <c r="F99">
+        <v>1768</v>
+      </c>
+      <c r="G99">
+        <v>626</v>
+      </c>
+      <c r="H99">
+        <v>6552</v>
+      </c>
+      <c r="I99">
+        <v>0.74</v>
+      </c>
+      <c r="J99">
+        <v>0.21</v>
+      </c>
+      <c r="K99">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>0.1</v>
+      </c>
+      <c r="C100">
+        <v>0.6</v>
+      </c>
+      <c r="D100">
+        <v>1890</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>8320</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>0.15</v>
+      </c>
+      <c r="C101">
+        <v>0.6</v>
+      </c>
+      <c r="D101">
+        <v>1890</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>8320</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>0.2</v>
+      </c>
+      <c r="C102">
+        <v>0.6</v>
+      </c>
+      <c r="D102">
+        <v>1890</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>8320</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>0.25</v>
+      </c>
+      <c r="C103">
+        <v>0.6</v>
+      </c>
+      <c r="D103">
+        <v>1890</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>8320</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>0.3</v>
+      </c>
+      <c r="C104">
+        <v>0.6</v>
+      </c>
+      <c r="D104">
+        <v>1890</v>
+      </c>
+      <c r="E104">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>8312</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>0.35</v>
+      </c>
+      <c r="C105">
+        <v>0.6</v>
+      </c>
+      <c r="D105">
+        <v>1890</v>
+      </c>
+      <c r="E105">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>8308</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>0.1</v>
+      </c>
+      <c r="C106">
+        <v>0.7</v>
+      </c>
+      <c r="D106">
+        <v>1890</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>8320</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>0.15</v>
+      </c>
+      <c r="C107">
+        <v>0.7</v>
+      </c>
+      <c r="D107">
+        <v>1890</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>8320</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108">
+        <v>0.2</v>
+      </c>
+      <c r="C108">
+        <v>0.7</v>
+      </c>
+      <c r="D108">
+        <v>1890</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>8320</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>0.25</v>
+      </c>
+      <c r="C109">
+        <v>0.7</v>
+      </c>
+      <c r="D109">
+        <v>1890</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>8320</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>0.3</v>
+      </c>
+      <c r="C110">
+        <v>0.7</v>
+      </c>
+      <c r="D110">
+        <v>1890</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>8320</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>0.35</v>
+      </c>
+      <c r="C111">
+        <v>0.7</v>
+      </c>
+      <c r="D111">
+        <v>1890</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>8320</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B112">
+        <v>0.1</v>
+      </c>
+      <c r="C112">
+        <v>0.2</v>
+      </c>
+      <c r="D112">
+        <v>1890</v>
+      </c>
+      <c r="E112">
+        <v>2860</v>
+      </c>
+      <c r="F112">
+        <v>1946</v>
+      </c>
+      <c r="G112">
+        <v>914</v>
+      </c>
+      <c r="H112">
+        <v>5254</v>
+      </c>
+      <c r="I112">
+        <v>0.68</v>
+      </c>
+      <c r="J112">
+        <v>0.27</v>
+      </c>
+      <c r="K112">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>0.15</v>
+      </c>
+      <c r="C113">
+        <v>0.2</v>
+      </c>
+      <c r="D113">
+        <v>1890</v>
+      </c>
+      <c r="E113">
+        <v>2860</v>
+      </c>
+      <c r="F113">
+        <v>1946</v>
+      </c>
+      <c r="G113">
+        <v>914</v>
+      </c>
+      <c r="H113">
+        <v>5254</v>
+      </c>
+      <c r="I113">
+        <v>0.68</v>
+      </c>
+      <c r="J113">
+        <v>0.27</v>
+      </c>
+      <c r="K113">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>0.2</v>
+      </c>
+      <c r="C114">
+        <v>0.2</v>
+      </c>
+      <c r="D114">
+        <v>1890</v>
+      </c>
+      <c r="E114">
+        <v>2932</v>
+      </c>
+      <c r="F114">
+        <v>1946</v>
+      </c>
+      <c r="G114">
+        <v>986</v>
+      </c>
+      <c r="H114">
+        <v>5254</v>
+      </c>
+      <c r="I114">
+        <v>0.66</v>
+      </c>
+      <c r="J114">
+        <v>0.27</v>
+      </c>
+      <c r="K114">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>0.25</v>
+      </c>
+      <c r="C115">
+        <v>0.2</v>
+      </c>
+      <c r="D115">
+        <v>1890</v>
+      </c>
+      <c r="E115">
+        <v>3758</v>
+      </c>
+      <c r="F115">
+        <v>1978</v>
+      </c>
+      <c r="G115">
+        <v>1780</v>
+      </c>
+      <c r="H115">
+        <v>5222</v>
+      </c>
+      <c r="I115">
+        <v>0.53</v>
+      </c>
+      <c r="J115">
+        <v>0.27</v>
+      </c>
+      <c r="K115">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>0.3</v>
+      </c>
+      <c r="C116">
+        <v>0.2</v>
+      </c>
+      <c r="D116">
+        <v>1890</v>
+      </c>
+      <c r="E116">
+        <v>3872</v>
+      </c>
+      <c r="F116">
+        <v>1978</v>
+      </c>
+      <c r="G116">
+        <v>1894</v>
+      </c>
+      <c r="H116">
+        <v>5222</v>
+      </c>
+      <c r="I116">
+        <v>0.51</v>
+      </c>
+      <c r="J116">
+        <v>0.27</v>
+      </c>
+      <c r="K116">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>0.35</v>
+      </c>
+      <c r="C117">
+        <v>0.2</v>
+      </c>
+      <c r="D117">
+        <v>1890</v>
+      </c>
+      <c r="E117">
+        <v>5266</v>
+      </c>
+      <c r="F117">
+        <v>3130</v>
+      </c>
+      <c r="G117">
+        <v>2136</v>
+      </c>
+      <c r="H117">
+        <v>4070</v>
+      </c>
+      <c r="I117">
+        <v>0.59</v>
+      </c>
+      <c r="J117">
+        <v>0.43</v>
+      </c>
+      <c r="K117">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118">
+        <v>0.1</v>
+      </c>
+      <c r="C118">
+        <v>0.3</v>
+      </c>
+      <c r="D118">
+        <v>1890</v>
+      </c>
+      <c r="E118">
+        <v>2860</v>
+      </c>
+      <c r="F118">
+        <v>1946</v>
+      </c>
+      <c r="G118">
+        <v>914</v>
+      </c>
+      <c r="H118">
+        <v>5254</v>
+      </c>
+      <c r="I118">
+        <v>0.68</v>
+      </c>
+      <c r="J118">
+        <v>0.27</v>
+      </c>
+      <c r="K118">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119">
+        <v>0.15</v>
+      </c>
+      <c r="C119">
+        <v>0.3</v>
+      </c>
+      <c r="D119">
+        <v>1890</v>
+      </c>
+      <c r="E119">
+        <v>2860</v>
+      </c>
+      <c r="F119">
+        <v>1946</v>
+      </c>
+      <c r="G119">
+        <v>914</v>
+      </c>
+      <c r="H119">
+        <v>5254</v>
+      </c>
+      <c r="I119">
+        <v>0.68</v>
+      </c>
+      <c r="J119">
+        <v>0.27</v>
+      </c>
+      <c r="K119">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120">
+        <v>0.2</v>
+      </c>
+      <c r="C120">
+        <v>0.3</v>
+      </c>
+      <c r="D120">
+        <v>1890</v>
+      </c>
+      <c r="E120">
+        <v>2932</v>
+      </c>
+      <c r="F120">
+        <v>1946</v>
+      </c>
+      <c r="G120">
+        <v>986</v>
+      </c>
+      <c r="H120">
+        <v>5254</v>
+      </c>
+      <c r="I120">
+        <v>0.66</v>
+      </c>
+      <c r="J120">
+        <v>0.27</v>
+      </c>
+      <c r="K120">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>0.25</v>
+      </c>
+      <c r="C121">
+        <v>0.3</v>
+      </c>
+      <c r="D121">
+        <v>1890</v>
+      </c>
+      <c r="E121">
+        <v>3758</v>
+      </c>
+      <c r="F121">
+        <v>1978</v>
+      </c>
+      <c r="G121">
+        <v>1780</v>
+      </c>
+      <c r="H121">
+        <v>5222</v>
+      </c>
+      <c r="I121">
+        <v>0.53</v>
+      </c>
+      <c r="J121">
+        <v>0.27</v>
+      </c>
+      <c r="K121">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>0.3</v>
+      </c>
+      <c r="C122">
+        <v>0.3</v>
+      </c>
+      <c r="D122">
+        <v>1890</v>
+      </c>
+      <c r="E122">
+        <v>3872</v>
+      </c>
+      <c r="F122">
+        <v>1978</v>
+      </c>
+      <c r="G122">
+        <v>1894</v>
+      </c>
+      <c r="H122">
+        <v>5222</v>
+      </c>
+      <c r="I122">
+        <v>0.51</v>
+      </c>
+      <c r="J122">
+        <v>0.27</v>
+      </c>
+      <c r="K122">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>0.35</v>
+      </c>
+      <c r="C123">
+        <v>0.3</v>
+      </c>
+      <c r="D123">
+        <v>1890</v>
+      </c>
+      <c r="E123">
+        <v>5266</v>
+      </c>
+      <c r="F123">
+        <v>3130</v>
+      </c>
+      <c r="G123">
+        <v>2136</v>
+      </c>
+      <c r="H123">
+        <v>4070</v>
+      </c>
+      <c r="I123">
+        <v>0.59</v>
+      </c>
+      <c r="J123">
+        <v>0.43</v>
+      </c>
+      <c r="K123">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>0.1</v>
+      </c>
+      <c r="C124">
+        <v>0.4</v>
+      </c>
+      <c r="D124">
+        <v>1890</v>
+      </c>
+      <c r="E124">
+        <v>1228</v>
+      </c>
+      <c r="F124">
+        <v>938</v>
+      </c>
+      <c r="G124">
+        <v>290</v>
+      </c>
+      <c r="H124">
+        <v>6262</v>
+      </c>
+      <c r="I124">
+        <v>0.76</v>
+      </c>
+      <c r="J124">
+        <v>0.13</v>
+      </c>
+      <c r="K124">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>0.15</v>
+      </c>
+      <c r="C125">
+        <v>0.4</v>
+      </c>
+      <c r="D125">
+        <v>1890</v>
+      </c>
+      <c r="E125">
+        <v>1228</v>
+      </c>
+      <c r="F125">
+        <v>938</v>
+      </c>
+      <c r="G125">
+        <v>290</v>
+      </c>
+      <c r="H125">
+        <v>6262</v>
+      </c>
+      <c r="I125">
+        <v>0.76</v>
+      </c>
+      <c r="J125">
+        <v>0.13</v>
+      </c>
+      <c r="K125">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>0.2</v>
+      </c>
+      <c r="C126">
+        <v>0.4</v>
+      </c>
+      <c r="D126">
+        <v>1890</v>
+      </c>
+      <c r="E126">
+        <v>1300</v>
+      </c>
+      <c r="F126">
+        <v>938</v>
+      </c>
+      <c r="G126">
+        <v>362</v>
+      </c>
+      <c r="H126">
+        <v>6262</v>
+      </c>
+      <c r="I126">
+        <v>0.72</v>
+      </c>
+      <c r="J126">
+        <v>0.13</v>
+      </c>
+      <c r="K126">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>0.25</v>
+      </c>
+      <c r="C127">
+        <v>0.4</v>
+      </c>
+      <c r="D127">
+        <v>1890</v>
+      </c>
+      <c r="E127">
+        <v>2126</v>
+      </c>
+      <c r="F127">
+        <v>970</v>
+      </c>
+      <c r="G127">
+        <v>1156</v>
+      </c>
+      <c r="H127">
+        <v>6230</v>
+      </c>
+      <c r="I127">
+        <v>0.46</v>
+      </c>
+      <c r="J127">
+        <v>0.13</v>
+      </c>
+      <c r="K127">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>0.3</v>
+      </c>
+      <c r="C128">
+        <v>0.4</v>
+      </c>
+      <c r="D128">
+        <v>1890</v>
+      </c>
+      <c r="E128">
+        <v>2160</v>
+      </c>
+      <c r="F128">
+        <v>970</v>
+      </c>
+      <c r="G128">
+        <v>1190</v>
+      </c>
+      <c r="H128">
+        <v>6230</v>
+      </c>
+      <c r="I128">
+        <v>0.45</v>
+      </c>
+      <c r="J128">
+        <v>0.13</v>
+      </c>
+      <c r="K128">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>0.35</v>
+      </c>
+      <c r="C129">
+        <v>0.4</v>
+      </c>
+      <c r="D129">
+        <v>1890</v>
+      </c>
+      <c r="E129">
+        <v>3554</v>
+      </c>
+      <c r="F129">
+        <v>2122</v>
+      </c>
+      <c r="G129">
+        <v>1432</v>
+      </c>
+      <c r="H129">
+        <v>5078</v>
+      </c>
+      <c r="I129">
+        <v>0.6</v>
+      </c>
+      <c r="J129">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K129">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>0.1</v>
+      </c>
+      <c r="C130">
+        <v>0.5</v>
+      </c>
+      <c r="D130">
+        <v>1890</v>
+      </c>
+      <c r="E130">
+        <v>884</v>
+      </c>
+      <c r="F130">
+        <v>810</v>
+      </c>
+      <c r="G130">
+        <v>74</v>
+      </c>
+      <c r="H130">
+        <v>6390</v>
+      </c>
+      <c r="I130">
+        <v>0.92</v>
+      </c>
+      <c r="J130">
+        <v>0.11</v>
+      </c>
+      <c r="K130">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <v>0.15</v>
+      </c>
+      <c r="C131">
+        <v>0.5</v>
+      </c>
+      <c r="D131">
+        <v>1890</v>
+      </c>
+      <c r="E131">
+        <v>884</v>
+      </c>
+      <c r="F131">
+        <v>810</v>
+      </c>
+      <c r="G131">
+        <v>74</v>
+      </c>
+      <c r="H131">
+        <v>6390</v>
+      </c>
+      <c r="I131">
+        <v>0.92</v>
+      </c>
+      <c r="J131">
+        <v>0.11</v>
+      </c>
+      <c r="K131">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>0.2</v>
+      </c>
+      <c r="C132">
+        <v>0.5</v>
+      </c>
+      <c r="D132">
+        <v>1890</v>
+      </c>
+      <c r="E132">
+        <v>956</v>
+      </c>
+      <c r="F132">
+        <v>810</v>
+      </c>
+      <c r="G132">
+        <v>146</v>
+      </c>
+      <c r="H132">
+        <v>6390</v>
+      </c>
+      <c r="I132">
+        <v>0.85</v>
+      </c>
+      <c r="J132">
+        <v>0.11</v>
+      </c>
+      <c r="K132">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133">
+        <v>0.25</v>
+      </c>
+      <c r="C133">
+        <v>0.5</v>
+      </c>
+      <c r="D133">
+        <v>1890</v>
+      </c>
+      <c r="E133">
+        <v>1174</v>
+      </c>
+      <c r="F133">
+        <v>842</v>
+      </c>
+      <c r="G133">
+        <v>332</v>
+      </c>
+      <c r="H133">
+        <v>6358</v>
+      </c>
+      <c r="I133">
+        <v>0.72</v>
+      </c>
+      <c r="J133">
+        <v>0.12</v>
+      </c>
+      <c r="K133">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>0.3</v>
+      </c>
+      <c r="C134">
+        <v>0.5</v>
+      </c>
+      <c r="D134">
+        <v>1890</v>
+      </c>
+      <c r="E134">
+        <v>1208</v>
+      </c>
+      <c r="F134">
+        <v>842</v>
+      </c>
+      <c r="G134">
+        <v>366</v>
+      </c>
+      <c r="H134">
+        <v>6358</v>
+      </c>
+      <c r="I134">
+        <v>0.7</v>
+      </c>
+      <c r="J134">
+        <v>0.12</v>
+      </c>
+      <c r="K134">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>0.35</v>
+      </c>
+      <c r="C135">
+        <v>0.5</v>
+      </c>
+      <c r="D135">
+        <v>1890</v>
+      </c>
+      <c r="E135">
+        <v>1944</v>
+      </c>
+      <c r="F135">
+        <v>1426</v>
+      </c>
+      <c r="G135">
+        <v>518</v>
+      </c>
+      <c r="H135">
+        <v>5774</v>
+      </c>
+      <c r="I135">
+        <v>0.73</v>
+      </c>
+      <c r="J135">
+        <v>0.2</v>
+      </c>
+      <c r="K135">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>0.1</v>
+      </c>
+      <c r="C136">
+        <v>0.6</v>
+      </c>
+      <c r="D136">
+        <v>1890</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>7200</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>0.15</v>
+      </c>
+      <c r="C137">
+        <v>0.6</v>
+      </c>
+      <c r="D137">
+        <v>1890</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>7200</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>0.2</v>
+      </c>
+      <c r="C138">
+        <v>0.6</v>
+      </c>
+      <c r="D138">
+        <v>1890</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>7200</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>0.25</v>
+      </c>
+      <c r="C139">
+        <v>0.6</v>
+      </c>
+      <c r="D139">
+        <v>1890</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>7200</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>0.3</v>
+      </c>
+      <c r="C140">
+        <v>0.6</v>
+      </c>
+      <c r="D140">
+        <v>1890</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>7200</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <v>0.35</v>
+      </c>
+      <c r="C141">
+        <v>0.6</v>
+      </c>
+      <c r="D141">
+        <v>1890</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>7200</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142">
+        <v>0.1</v>
+      </c>
+      <c r="C142">
+        <v>0.7</v>
+      </c>
+      <c r="D142">
+        <v>1890</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>7200</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>5</v>
+      </c>
+      <c r="B143">
+        <v>0.15</v>
+      </c>
+      <c r="C143">
+        <v>0.7</v>
+      </c>
+      <c r="D143">
+        <v>1890</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>7200</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144">
+        <v>0.2</v>
+      </c>
+      <c r="C144">
+        <v>0.7</v>
+      </c>
+      <c r="D144">
+        <v>1890</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>7200</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145">
+        <v>0.25</v>
+      </c>
+      <c r="C145">
+        <v>0.7</v>
+      </c>
+      <c r="D145">
+        <v>1890</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>7200</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>0.3</v>
+      </c>
+      <c r="C146">
+        <v>0.7</v>
+      </c>
+      <c r="D146">
+        <v>1890</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>7200</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147">
+        <v>0.35</v>
+      </c>
+      <c r="C147">
+        <v>0.7</v>
+      </c>
+      <c r="D147">
+        <v>1890</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>7200</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B148">
+        <v>0.1</v>
+      </c>
+      <c r="C148">
+        <v>0.2</v>
+      </c>
+      <c r="D148">
+        <v>1890</v>
+      </c>
+      <c r="E148">
+        <v>834</v>
+      </c>
+      <c r="F148">
+        <v>690</v>
+      </c>
+      <c r="G148">
+        <v>144</v>
+      </c>
+      <c r="H148">
+        <v>4470</v>
+      </c>
+      <c r="I148">
+        <v>0.83</v>
+      </c>
+      <c r="J148">
+        <v>0.13</v>
+      </c>
+      <c r="K148">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149">
+        <v>0.15</v>
+      </c>
+      <c r="C149">
+        <v>0.2</v>
+      </c>
+      <c r="D149">
+        <v>1890</v>
+      </c>
+      <c r="E149">
+        <v>834</v>
+      </c>
+      <c r="F149">
+        <v>690</v>
+      </c>
+      <c r="G149">
+        <v>144</v>
+      </c>
+      <c r="H149">
+        <v>4470</v>
+      </c>
+      <c r="I149">
+        <v>0.83</v>
+      </c>
+      <c r="J149">
+        <v>0.13</v>
+      </c>
+      <c r="K149">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150">
+        <v>0.2</v>
+      </c>
+      <c r="C150">
+        <v>0.2</v>
+      </c>
+      <c r="D150">
+        <v>1890</v>
+      </c>
+      <c r="E150">
+        <v>834</v>
+      </c>
+      <c r="F150">
+        <v>690</v>
+      </c>
+      <c r="G150">
+        <v>144</v>
+      </c>
+      <c r="H150">
+        <v>4470</v>
+      </c>
+      <c r="I150">
+        <v>0.83</v>
+      </c>
+      <c r="J150">
+        <v>0.13</v>
+      </c>
+      <c r="K150">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>0.25</v>
+      </c>
+      <c r="C151">
+        <v>0.2</v>
+      </c>
+      <c r="D151">
+        <v>1890</v>
+      </c>
+      <c r="E151">
+        <v>1442</v>
+      </c>
+      <c r="F151">
+        <v>690</v>
+      </c>
+      <c r="G151">
+        <v>752</v>
+      </c>
+      <c r="H151">
+        <v>4470</v>
+      </c>
+      <c r="I151">
+        <v>0.48</v>
+      </c>
+      <c r="J151">
+        <v>0.13</v>
+      </c>
+      <c r="K151">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152">
+        <v>0.3</v>
+      </c>
+      <c r="C152">
+        <v>0.2</v>
+      </c>
+      <c r="D152">
+        <v>1890</v>
+      </c>
+      <c r="E152">
+        <v>1444</v>
+      </c>
+      <c r="F152">
+        <v>690</v>
+      </c>
+      <c r="G152">
+        <v>754</v>
+      </c>
+      <c r="H152">
+        <v>4470</v>
+      </c>
+      <c r="I152">
+        <v>0.48</v>
+      </c>
+      <c r="J152">
+        <v>0.13</v>
+      </c>
+      <c r="K152">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153">
+        <v>0.35</v>
+      </c>
+      <c r="C153">
+        <v>0.2</v>
+      </c>
+      <c r="D153">
+        <v>1890</v>
+      </c>
+      <c r="E153">
+        <v>2706</v>
+      </c>
+      <c r="F153">
+        <v>1754</v>
+      </c>
+      <c r="G153">
+        <v>952</v>
+      </c>
+      <c r="H153">
+        <v>3406</v>
+      </c>
+      <c r="I153">
+        <v>0.65</v>
+      </c>
+      <c r="J153">
+        <v>0.34</v>
+      </c>
+      <c r="K153">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154">
+        <v>0.1</v>
+      </c>
+      <c r="C154">
+        <v>0.3</v>
+      </c>
+      <c r="D154">
+        <v>1890</v>
+      </c>
+      <c r="E154">
+        <v>834</v>
+      </c>
+      <c r="F154">
+        <v>690</v>
+      </c>
+      <c r="G154">
+        <v>144</v>
+      </c>
+      <c r="H154">
+        <v>4470</v>
+      </c>
+      <c r="I154">
+        <v>0.83</v>
+      </c>
+      <c r="J154">
+        <v>0.13</v>
+      </c>
+      <c r="K154">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>0.15</v>
+      </c>
+      <c r="C155">
+        <v>0.3</v>
+      </c>
+      <c r="D155">
+        <v>1890</v>
+      </c>
+      <c r="E155">
+        <v>834</v>
+      </c>
+      <c r="F155">
+        <v>690</v>
+      </c>
+      <c r="G155">
+        <v>144</v>
+      </c>
+      <c r="H155">
+        <v>4470</v>
+      </c>
+      <c r="I155">
+        <v>0.83</v>
+      </c>
+      <c r="J155">
+        <v>0.13</v>
+      </c>
+      <c r="K155">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156">
+        <v>0.2</v>
+      </c>
+      <c r="C156">
+        <v>0.3</v>
+      </c>
+      <c r="D156">
+        <v>1890</v>
+      </c>
+      <c r="E156">
+        <v>834</v>
+      </c>
+      <c r="F156">
+        <v>690</v>
+      </c>
+      <c r="G156">
+        <v>144</v>
+      </c>
+      <c r="H156">
+        <v>4470</v>
+      </c>
+      <c r="I156">
+        <v>0.83</v>
+      </c>
+      <c r="J156">
+        <v>0.13</v>
+      </c>
+      <c r="K156">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>0.25</v>
+      </c>
+      <c r="C157">
+        <v>0.3</v>
+      </c>
+      <c r="D157">
+        <v>1890</v>
+      </c>
+      <c r="E157">
+        <v>1442</v>
+      </c>
+      <c r="F157">
+        <v>690</v>
+      </c>
+      <c r="G157">
+        <v>752</v>
+      </c>
+      <c r="H157">
+        <v>4470</v>
+      </c>
+      <c r="I157">
+        <v>0.48</v>
+      </c>
+      <c r="J157">
+        <v>0.13</v>
+      </c>
+      <c r="K157">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <v>0.3</v>
+      </c>
+      <c r="C158">
+        <v>0.3</v>
+      </c>
+      <c r="D158">
+        <v>1890</v>
+      </c>
+      <c r="E158">
+        <v>1444</v>
+      </c>
+      <c r="F158">
+        <v>690</v>
+      </c>
+      <c r="G158">
+        <v>754</v>
+      </c>
+      <c r="H158">
+        <v>4470</v>
+      </c>
+      <c r="I158">
+        <v>0.48</v>
+      </c>
+      <c r="J158">
+        <v>0.13</v>
+      </c>
+      <c r="K158">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159">
+        <v>0.35</v>
+      </c>
+      <c r="C159">
+        <v>0.3</v>
+      </c>
+      <c r="D159">
+        <v>1890</v>
+      </c>
+      <c r="E159">
+        <v>2706</v>
+      </c>
+      <c r="F159">
+        <v>1754</v>
+      </c>
+      <c r="G159">
+        <v>952</v>
+      </c>
+      <c r="H159">
+        <v>3406</v>
+      </c>
+      <c r="I159">
+        <v>0.65</v>
+      </c>
+      <c r="J159">
+        <v>0.34</v>
+      </c>
+      <c r="K159">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>0.1</v>
+      </c>
+      <c r="C160">
+        <v>0.4</v>
+      </c>
+      <c r="D160">
+        <v>1890</v>
+      </c>
+      <c r="E160">
+        <v>834</v>
+      </c>
+      <c r="F160">
+        <v>690</v>
+      </c>
+      <c r="G160">
+        <v>144</v>
+      </c>
+      <c r="H160">
+        <v>4470</v>
+      </c>
+      <c r="I160">
+        <v>0.83</v>
+      </c>
+      <c r="J160">
+        <v>0.13</v>
+      </c>
+      <c r="K160">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>0.15</v>
+      </c>
+      <c r="C161">
+        <v>0.4</v>
+      </c>
+      <c r="D161">
+        <v>1890</v>
+      </c>
+      <c r="E161">
+        <v>834</v>
+      </c>
+      <c r="F161">
+        <v>690</v>
+      </c>
+      <c r="G161">
+        <v>144</v>
+      </c>
+      <c r="H161">
+        <v>4470</v>
+      </c>
+      <c r="I161">
+        <v>0.83</v>
+      </c>
+      <c r="J161">
+        <v>0.13</v>
+      </c>
+      <c r="K161">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>0.2</v>
+      </c>
+      <c r="C162">
+        <v>0.4</v>
+      </c>
+      <c r="D162">
+        <v>1890</v>
+      </c>
+      <c r="E162">
+        <v>834</v>
+      </c>
+      <c r="F162">
+        <v>690</v>
+      </c>
+      <c r="G162">
+        <v>144</v>
+      </c>
+      <c r="H162">
+        <v>4470</v>
+      </c>
+      <c r="I162">
+        <v>0.83</v>
+      </c>
+      <c r="J162">
+        <v>0.13</v>
+      </c>
+      <c r="K162">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>0.25</v>
+      </c>
+      <c r="C163">
+        <v>0.4</v>
+      </c>
+      <c r="D163">
+        <v>1890</v>
+      </c>
+      <c r="E163">
+        <v>1442</v>
+      </c>
+      <c r="F163">
+        <v>690</v>
+      </c>
+      <c r="G163">
+        <v>752</v>
+      </c>
+      <c r="H163">
+        <v>4470</v>
+      </c>
+      <c r="I163">
+        <v>0.48</v>
+      </c>
+      <c r="J163">
+        <v>0.13</v>
+      </c>
+      <c r="K163">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>0.3</v>
+      </c>
+      <c r="C164">
+        <v>0.4</v>
+      </c>
+      <c r="D164">
+        <v>1890</v>
+      </c>
+      <c r="E164">
+        <v>1444</v>
+      </c>
+      <c r="F164">
+        <v>690</v>
+      </c>
+      <c r="G164">
+        <v>754</v>
+      </c>
+      <c r="H164">
+        <v>4470</v>
+      </c>
+      <c r="I164">
+        <v>0.48</v>
+      </c>
+      <c r="J164">
+        <v>0.13</v>
+      </c>
+      <c r="K164">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165">
+        <v>0.35</v>
+      </c>
+      <c r="C165">
+        <v>0.4</v>
+      </c>
+      <c r="D165">
+        <v>1890</v>
+      </c>
+      <c r="E165">
+        <v>2706</v>
+      </c>
+      <c r="F165">
+        <v>1754</v>
+      </c>
+      <c r="G165">
+        <v>952</v>
+      </c>
+      <c r="H165">
+        <v>3406</v>
+      </c>
+      <c r="I165">
+        <v>0.65</v>
+      </c>
+      <c r="J165">
+        <v>0.34</v>
+      </c>
+      <c r="K165">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166">
+        <v>0.1</v>
+      </c>
+      <c r="C166">
+        <v>0.5</v>
+      </c>
+      <c r="D166">
+        <v>1890</v>
+      </c>
+      <c r="E166">
+        <v>690</v>
+      </c>
+      <c r="F166">
+        <v>690</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>4470</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0.13</v>
+      </c>
+      <c r="K166">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>0.15</v>
+      </c>
+      <c r="C167">
+        <v>0.5</v>
+      </c>
+      <c r="D167">
+        <v>1890</v>
+      </c>
+      <c r="E167">
+        <v>690</v>
+      </c>
+      <c r="F167">
+        <v>690</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>4470</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0.13</v>
+      </c>
+      <c r="K167">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168">
+        <v>0.2</v>
+      </c>
+      <c r="C168">
+        <v>0.5</v>
+      </c>
+      <c r="D168">
+        <v>1890</v>
+      </c>
+      <c r="E168">
+        <v>690</v>
+      </c>
+      <c r="F168">
+        <v>690</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>4470</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0.13</v>
+      </c>
+      <c r="K168">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169">
+        <v>0.25</v>
+      </c>
+      <c r="C169">
+        <v>0.5</v>
+      </c>
+      <c r="D169">
+        <v>1890</v>
+      </c>
+      <c r="E169">
+        <v>690</v>
+      </c>
+      <c r="F169">
+        <v>690</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>4470</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0.13</v>
+      </c>
+      <c r="K169">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170">
+        <v>0.3</v>
+      </c>
+      <c r="C170">
+        <v>0.5</v>
+      </c>
+      <c r="D170">
+        <v>1890</v>
+      </c>
+      <c r="E170">
+        <v>692</v>
+      </c>
+      <c r="F170">
+        <v>690</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+      <c r="H170">
+        <v>4470</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0.13</v>
+      </c>
+      <c r="K170">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171">
+        <v>0.35</v>
+      </c>
+      <c r="C171">
+        <v>0.5</v>
+      </c>
+      <c r="D171">
+        <v>1890</v>
+      </c>
+      <c r="E171">
+        <v>1296</v>
+      </c>
+      <c r="F171">
+        <v>1186</v>
+      </c>
+      <c r="G171">
+        <v>110</v>
+      </c>
+      <c r="H171">
+        <v>3974</v>
+      </c>
+      <c r="I171">
+        <v>0.92</v>
+      </c>
+      <c r="J171">
+        <v>0.23</v>
+      </c>
+      <c r="K171">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>0.1</v>
+      </c>
+      <c r="C172">
+        <v>0.6</v>
+      </c>
+      <c r="D172">
+        <v>1890</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>5160</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173">
+        <v>0.15</v>
+      </c>
+      <c r="C173">
+        <v>0.6</v>
+      </c>
+      <c r="D173">
+        <v>1890</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>5160</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174">
+        <v>0.2</v>
+      </c>
+      <c r="C174">
+        <v>0.6</v>
+      </c>
+      <c r="D174">
+        <v>1890</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>5160</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175">
+        <v>0.25</v>
+      </c>
+      <c r="C175">
+        <v>0.6</v>
+      </c>
+      <c r="D175">
+        <v>1890</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>5160</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>0.3</v>
+      </c>
+      <c r="C176">
+        <v>0.6</v>
+      </c>
+      <c r="D176">
+        <v>1890</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>5160</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>0.35</v>
+      </c>
+      <c r="C177">
+        <v>0.6</v>
+      </c>
+      <c r="D177">
+        <v>1890</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>5160</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178">
+        <v>0.1</v>
+      </c>
+      <c r="C178">
+        <v>0.7</v>
+      </c>
+      <c r="D178">
+        <v>1890</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>5160</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>6</v>
+      </c>
+      <c r="B179">
+        <v>0.15</v>
+      </c>
+      <c r="C179">
+        <v>0.7</v>
+      </c>
+      <c r="D179">
+        <v>1890</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>5160</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>6</v>
+      </c>
+      <c r="B180">
+        <v>0.2</v>
+      </c>
+      <c r="C180">
+        <v>0.7</v>
+      </c>
+      <c r="D180">
+        <v>1890</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>5160</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181">
+        <v>0.25</v>
+      </c>
+      <c r="C181">
+        <v>0.7</v>
+      </c>
+      <c r="D181">
+        <v>1890</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>5160</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>6</v>
+      </c>
+      <c r="B182">
+        <v>0.3</v>
+      </c>
+      <c r="C182">
+        <v>0.7</v>
+      </c>
+      <c r="D182">
+        <v>1890</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>5160</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183">
+        <v>0.35</v>
+      </c>
+      <c r="C183">
+        <v>0.7</v>
+      </c>
+      <c r="D183">
+        <v>1890</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>5160</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="B184">
+        <v>0.1</v>
+      </c>
+      <c r="C184">
+        <v>0.2</v>
+      </c>
+      <c r="D184">
+        <v>1890</v>
+      </c>
+      <c r="E184">
+        <v>546</v>
+      </c>
+      <c r="F184">
+        <v>546</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>3536</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0.13</v>
+      </c>
+      <c r="K184">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185">
+        <v>0.15</v>
+      </c>
+      <c r="C185">
+        <v>0.2</v>
+      </c>
+      <c r="D185">
+        <v>1890</v>
+      </c>
+      <c r="E185">
+        <v>546</v>
+      </c>
+      <c r="F185">
+        <v>546</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>3536</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0.13</v>
+      </c>
+      <c r="K185">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>7</v>
+      </c>
+      <c r="B186">
+        <v>0.2</v>
+      </c>
+      <c r="C186">
+        <v>0.2</v>
+      </c>
+      <c r="D186">
+        <v>1890</v>
+      </c>
+      <c r="E186">
+        <v>546</v>
+      </c>
+      <c r="F186">
+        <v>546</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>3536</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0.13</v>
+      </c>
+      <c r="K186">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>0.25</v>
+      </c>
+      <c r="C187">
+        <v>0.2</v>
+      </c>
+      <c r="D187">
+        <v>1890</v>
+      </c>
+      <c r="E187">
+        <v>546</v>
+      </c>
+      <c r="F187">
+        <v>546</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>3536</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0.13</v>
+      </c>
+      <c r="K187">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>0.3</v>
+      </c>
+      <c r="C188">
+        <v>0.2</v>
+      </c>
+      <c r="D188">
+        <v>1890</v>
+      </c>
+      <c r="E188">
+        <v>546</v>
+      </c>
+      <c r="F188">
+        <v>546</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>3536</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0.13</v>
+      </c>
+      <c r="K188">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>0.35</v>
+      </c>
+      <c r="C189">
+        <v>0.2</v>
+      </c>
+      <c r="D189">
+        <v>1890</v>
+      </c>
+      <c r="E189">
+        <v>1114</v>
+      </c>
+      <c r="F189">
+        <v>1042</v>
+      </c>
+      <c r="G189">
+        <v>72</v>
+      </c>
+      <c r="H189">
+        <v>3040</v>
+      </c>
+      <c r="I189">
+        <v>0.94</v>
+      </c>
+      <c r="J189">
+        <v>0.26</v>
+      </c>
+      <c r="K189">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>7</v>
+      </c>
+      <c r="B190">
+        <v>0.1</v>
+      </c>
+      <c r="C190">
+        <v>0.3</v>
+      </c>
+      <c r="D190">
+        <v>1890</v>
+      </c>
+      <c r="E190">
+        <v>546</v>
+      </c>
+      <c r="F190">
+        <v>546</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>3536</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0.13</v>
+      </c>
+      <c r="K190">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191">
+        <v>0.15</v>
+      </c>
+      <c r="C191">
+        <v>0.3</v>
+      </c>
+      <c r="D191">
+        <v>1890</v>
+      </c>
+      <c r="E191">
+        <v>546</v>
+      </c>
+      <c r="F191">
+        <v>546</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>3536</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0.13</v>
+      </c>
+      <c r="K191">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192">
+        <v>0.2</v>
+      </c>
+      <c r="C192">
+        <v>0.3</v>
+      </c>
+      <c r="D192">
+        <v>1890</v>
+      </c>
+      <c r="E192">
+        <v>546</v>
+      </c>
+      <c r="F192">
+        <v>546</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>3536</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0.13</v>
+      </c>
+      <c r="K192">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>7</v>
+      </c>
+      <c r="B193">
+        <v>0.25</v>
+      </c>
+      <c r="C193">
+        <v>0.3</v>
+      </c>
+      <c r="D193">
+        <v>1890</v>
+      </c>
+      <c r="E193">
+        <v>546</v>
+      </c>
+      <c r="F193">
+        <v>546</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>3536</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0.13</v>
+      </c>
+      <c r="K193">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194">
+        <v>0.3</v>
+      </c>
+      <c r="C194">
+        <v>0.3</v>
+      </c>
+      <c r="D194">
+        <v>1890</v>
+      </c>
+      <c r="E194">
+        <v>546</v>
+      </c>
+      <c r="F194">
+        <v>546</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>3536</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>0.13</v>
+      </c>
+      <c r="K194">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195">
+        <v>0.35</v>
+      </c>
+      <c r="C195">
+        <v>0.3</v>
+      </c>
+      <c r="D195">
+        <v>1890</v>
+      </c>
+      <c r="E195">
+        <v>1114</v>
+      </c>
+      <c r="F195">
+        <v>1042</v>
+      </c>
+      <c r="G195">
+        <v>72</v>
+      </c>
+      <c r="H195">
+        <v>3040</v>
+      </c>
+      <c r="I195">
+        <v>0.94</v>
+      </c>
+      <c r="J195">
+        <v>0.26</v>
+      </c>
+      <c r="K195">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196">
+        <v>0.1</v>
+      </c>
+      <c r="C196">
+        <v>0.4</v>
+      </c>
+      <c r="D196">
+        <v>1890</v>
+      </c>
+      <c r="E196">
+        <v>546</v>
+      </c>
+      <c r="F196">
+        <v>546</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>3536</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0.13</v>
+      </c>
+      <c r="K196">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197">
+        <v>0.15</v>
+      </c>
+      <c r="C197">
+        <v>0.4</v>
+      </c>
+      <c r="D197">
+        <v>1890</v>
+      </c>
+      <c r="E197">
+        <v>546</v>
+      </c>
+      <c r="F197">
+        <v>546</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>3536</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0.13</v>
+      </c>
+      <c r="K197">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>7</v>
+      </c>
+      <c r="B198">
+        <v>0.2</v>
+      </c>
+      <c r="C198">
+        <v>0.4</v>
+      </c>
+      <c r="D198">
+        <v>1890</v>
+      </c>
+      <c r="E198">
+        <v>546</v>
+      </c>
+      <c r="F198">
+        <v>546</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>3536</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0.13</v>
+      </c>
+      <c r="K198">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="B199">
+        <v>0.25</v>
+      </c>
+      <c r="C199">
+        <v>0.4</v>
+      </c>
+      <c r="D199">
+        <v>1890</v>
+      </c>
+      <c r="E199">
+        <v>546</v>
+      </c>
+      <c r="F199">
+        <v>546</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>3536</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0.13</v>
+      </c>
+      <c r="K199">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200">
+        <v>0.3</v>
+      </c>
+      <c r="C200">
+        <v>0.4</v>
+      </c>
+      <c r="D200">
+        <v>1890</v>
+      </c>
+      <c r="E200">
+        <v>546</v>
+      </c>
+      <c r="F200">
+        <v>546</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>3536</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0.13</v>
+      </c>
+      <c r="K200">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201">
+        <v>0.35</v>
+      </c>
+      <c r="C201">
+        <v>0.4</v>
+      </c>
+      <c r="D201">
+        <v>1890</v>
+      </c>
+      <c r="E201">
+        <v>1114</v>
+      </c>
+      <c r="F201">
+        <v>1042</v>
+      </c>
+      <c r="G201">
+        <v>72</v>
+      </c>
+      <c r="H201">
+        <v>3040</v>
+      </c>
+      <c r="I201">
+        <v>0.94</v>
+      </c>
+      <c r="J201">
+        <v>0.26</v>
+      </c>
+      <c r="K201">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>7</v>
+      </c>
+      <c r="B202">
+        <v>0.1</v>
+      </c>
+      <c r="C202">
+        <v>0.5</v>
+      </c>
+      <c r="D202">
+        <v>1890</v>
+      </c>
+      <c r="E202">
+        <v>546</v>
+      </c>
+      <c r="F202">
+        <v>546</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>3536</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0.13</v>
+      </c>
+      <c r="K202">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>7</v>
+      </c>
+      <c r="B203">
+        <v>0.15</v>
+      </c>
+      <c r="C203">
+        <v>0.5</v>
+      </c>
+      <c r="D203">
+        <v>1890</v>
+      </c>
+      <c r="E203">
+        <v>546</v>
+      </c>
+      <c r="F203">
+        <v>546</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>3536</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0.13</v>
+      </c>
+      <c r="K203">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>7</v>
+      </c>
+      <c r="B204">
+        <v>0.2</v>
+      </c>
+      <c r="C204">
+        <v>0.5</v>
+      </c>
+      <c r="D204">
+        <v>1890</v>
+      </c>
+      <c r="E204">
+        <v>546</v>
+      </c>
+      <c r="F204">
+        <v>546</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>3536</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0.13</v>
+      </c>
+      <c r="K204">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>7</v>
+      </c>
+      <c r="B205">
+        <v>0.25</v>
+      </c>
+      <c r="C205">
+        <v>0.5</v>
+      </c>
+      <c r="D205">
+        <v>1890</v>
+      </c>
+      <c r="E205">
+        <v>546</v>
+      </c>
+      <c r="F205">
+        <v>546</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>3536</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0.13</v>
+      </c>
+      <c r="K205">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/uk/ac/standrews/cs/population_linkage/resolver/triangle_clusters.xlsx
+++ b/src/main/java/uk/ac/standrews/cs/population_linkage/resolver/triangle_clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/al/repos/github/population-linkage/src/main/java/uk/ac/standrews/cs/population_linkage/resolver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56D231-5FD9-584D-8496-69D3DAB44B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B50CB-2DAE-5941-9056-BDF5227699DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22860" yWindow="6340" windowWidth="46960" windowHeight="31760" xr2:uid="{1A599B76-6D21-C545-833E-73C581B84FA2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{1A599B76-6D21-C545-833E-73C581B84FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="open Triangles" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Count</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Cut count</t>
+  </si>
+  <si>
+    <t>false +ve if there is a link when there should not be one</t>
   </si>
 </sst>
 </file>
@@ -429,65 +432,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B618706-85FA-0047-9823-355308A552D5}">
-  <dimension ref="A1:K256"/>
+  <dimension ref="A1:Q254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184:XFD184"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182:XFD182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="Q1" s="3">
         <v>44375</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>1890</v>
+      </c>
+      <c r="E2">
+        <v>7114</v>
+      </c>
+      <c r="F2">
+        <v>3270</v>
+      </c>
+      <c r="G2">
+        <v>3844</v>
+      </c>
+      <c r="H2">
+        <v>7402</v>
+      </c>
+      <c r="I2">
+        <v>0.46</v>
+      </c>
+      <c r="J2">
+        <v>0.31</v>
+      </c>
+      <c r="K2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>1890</v>
+      </c>
+      <c r="E3">
+        <v>7138</v>
+      </c>
+      <c r="F3">
+        <v>3270</v>
+      </c>
+      <c r="G3">
+        <v>3868</v>
+      </c>
+      <c r="H3">
+        <v>7404</v>
+      </c>
+      <c r="I3">
+        <v>0.46</v>
+      </c>
+      <c r="J3">
+        <v>0.31</v>
+      </c>
+      <c r="K3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -496,19 +571,19 @@
         <v>1890</v>
       </c>
       <c r="E4">
-        <v>7114</v>
+        <v>7364</v>
       </c>
       <c r="F4">
-        <v>3270</v>
+        <v>3314</v>
       </c>
       <c r="G4">
-        <v>3844</v>
+        <v>4050</v>
       </c>
       <c r="H4">
-        <v>7402</v>
+        <v>7359</v>
       </c>
       <c r="I4">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="J4">
         <v>0.31</v>
@@ -517,12 +592,12 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
         <v>0.2</v>
@@ -531,33 +606,33 @@
         <v>1890</v>
       </c>
       <c r="E5">
-        <v>7138</v>
+        <v>9082</v>
       </c>
       <c r="F5">
-        <v>3270</v>
+        <v>3464</v>
       </c>
       <c r="G5">
-        <v>3868</v>
+        <v>5618</v>
       </c>
       <c r="H5">
-        <v>7404</v>
+        <v>7209</v>
       </c>
       <c r="I5">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="J5">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="K5">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
         <v>0.2</v>
@@ -566,33 +641,33 @@
         <v>1890</v>
       </c>
       <c r="E6">
-        <v>7364</v>
+        <v>10062</v>
       </c>
       <c r="F6">
-        <v>3314</v>
+        <v>3744</v>
       </c>
       <c r="G6">
-        <v>4050</v>
+        <v>6318</v>
       </c>
       <c r="H6">
-        <v>7359</v>
+        <v>6930</v>
       </c>
       <c r="I6">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="J6">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="K6">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C7">
         <v>0.2</v>
@@ -601,103 +676,103 @@
         <v>1890</v>
       </c>
       <c r="E7">
-        <v>9082</v>
+        <v>13050</v>
       </c>
       <c r="F7">
-        <v>3464</v>
+        <v>5749</v>
       </c>
       <c r="G7">
-        <v>5618</v>
+        <v>7301</v>
       </c>
       <c r="H7">
-        <v>7209</v>
+        <v>4926</v>
       </c>
       <c r="I7">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="J7">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="K7">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
         <v>0.3</v>
       </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
       <c r="D8">
         <v>1890</v>
       </c>
       <c r="E8">
-        <v>10062</v>
+        <v>6252</v>
       </c>
       <c r="F8">
-        <v>3744</v>
+        <v>3258</v>
       </c>
       <c r="G8">
-        <v>6318</v>
+        <v>2994</v>
       </c>
       <c r="H8">
-        <v>6930</v>
+        <v>7413</v>
       </c>
       <c r="I8">
-        <v>0.37</v>
+        <v>0.52</v>
       </c>
       <c r="J8">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="K8">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
         <v>1890</v>
       </c>
       <c r="E9">
-        <v>13050</v>
+        <v>6252</v>
       </c>
       <c r="F9">
-        <v>5749</v>
+        <v>3258</v>
       </c>
       <c r="G9">
-        <v>7301</v>
+        <v>2994</v>
       </c>
       <c r="H9">
-        <v>4926</v>
+        <v>7415</v>
       </c>
       <c r="I9">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="J9">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="K9">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
         <v>0.3</v>
@@ -706,19 +781,19 @@
         <v>1890</v>
       </c>
       <c r="E10">
-        <v>6252</v>
+        <v>6478</v>
       </c>
       <c r="F10">
-        <v>3258</v>
+        <v>3302</v>
       </c>
       <c r="G10">
-        <v>2994</v>
+        <v>3176</v>
       </c>
       <c r="H10">
-        <v>7413</v>
+        <v>7371</v>
       </c>
       <c r="I10">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="J10">
         <v>0.31</v>
@@ -727,12 +802,12 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C11">
         <v>0.3</v>
@@ -741,33 +816,33 @@
         <v>1890</v>
       </c>
       <c r="E11">
-        <v>6252</v>
+        <v>7860</v>
       </c>
       <c r="F11">
-        <v>3258</v>
+        <v>3452</v>
       </c>
       <c r="G11">
-        <v>2994</v>
+        <v>4408</v>
       </c>
       <c r="H11">
-        <v>7415</v>
+        <v>7222</v>
       </c>
       <c r="I11">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="J11">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="K11">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
         <v>0.3</v>
@@ -776,33 +851,33 @@
         <v>1890</v>
       </c>
       <c r="E12">
-        <v>6478</v>
+        <v>8840</v>
       </c>
       <c r="F12">
-        <v>3302</v>
+        <v>3732</v>
       </c>
       <c r="G12">
-        <v>3176</v>
+        <v>5108</v>
       </c>
       <c r="H12">
-        <v>7371</v>
+        <v>6942</v>
       </c>
       <c r="I12">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="J12">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="K12">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C13">
         <v>0.3</v>
@@ -811,103 +886,103 @@
         <v>1890</v>
       </c>
       <c r="E13">
-        <v>7860</v>
+        <v>11828</v>
       </c>
       <c r="F13">
-        <v>3452</v>
+        <v>5733</v>
       </c>
       <c r="G13">
-        <v>4408</v>
+        <v>6095</v>
       </c>
       <c r="H13">
-        <v>7222</v>
+        <v>4938</v>
       </c>
       <c r="I13">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="J13">
-        <v>0.32</v>
+        <v>0.54</v>
       </c>
       <c r="K13">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
         <v>1890</v>
       </c>
       <c r="E14">
-        <v>8840</v>
+        <v>2392</v>
       </c>
       <c r="F14">
-        <v>3732</v>
+        <v>1686</v>
       </c>
       <c r="G14">
-        <v>5108</v>
+        <v>706</v>
       </c>
       <c r="H14">
-        <v>6942</v>
+        <v>8987</v>
       </c>
       <c r="I14">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="J14">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="K14">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C15">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
         <v>1890</v>
       </c>
       <c r="E15">
-        <v>11828</v>
+        <v>2392</v>
       </c>
       <c r="F15">
-        <v>5733</v>
+        <v>1686</v>
       </c>
       <c r="G15">
-        <v>6095</v>
+        <v>706</v>
       </c>
       <c r="H15">
-        <v>4938</v>
+        <v>8986</v>
       </c>
       <c r="I15">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="J15">
-        <v>0.54</v>
+        <v>0.16</v>
       </c>
       <c r="K15">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C16">
         <v>0.4</v>
@@ -916,19 +991,19 @@
         <v>1890</v>
       </c>
       <c r="E16">
-        <v>2392</v>
+        <v>2488</v>
       </c>
       <c r="F16">
-        <v>1686</v>
+        <v>1698</v>
       </c>
       <c r="G16">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="H16">
-        <v>8987</v>
+        <v>8974</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="J16">
         <v>0.16</v>
@@ -942,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C17">
         <v>0.4</v>
@@ -951,25 +1026,25 @@
         <v>1890</v>
       </c>
       <c r="E17">
-        <v>2392</v>
+        <v>3528</v>
       </c>
       <c r="F17">
-        <v>1686</v>
+        <v>1800</v>
       </c>
       <c r="G17">
-        <v>706</v>
+        <v>1728</v>
       </c>
       <c r="H17">
-        <v>8986</v>
+        <v>8870</v>
       </c>
       <c r="I17">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="J17">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -977,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C18">
         <v>0.4</v>
@@ -986,25 +1061,25 @@
         <v>1890</v>
       </c>
       <c r="E18">
-        <v>2488</v>
+        <v>4222</v>
       </c>
       <c r="F18">
-        <v>1698</v>
+        <v>2032</v>
       </c>
       <c r="G18">
-        <v>790</v>
+        <v>2190</v>
       </c>
       <c r="H18">
-        <v>8974</v>
+        <v>8641</v>
       </c>
       <c r="I18">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
       <c r="J18">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="K18">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1012,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C19">
         <v>0.4</v>
@@ -1021,25 +1096,25 @@
         <v>1890</v>
       </c>
       <c r="E19">
-        <v>3528</v>
+        <v>6982</v>
       </c>
       <c r="F19">
-        <v>1800</v>
+        <v>4024</v>
       </c>
       <c r="G19">
-        <v>1728</v>
+        <v>2958</v>
       </c>
       <c r="H19">
-        <v>8870</v>
+        <v>6648</v>
       </c>
       <c r="I19">
-        <v>0.51</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J19">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="K19">
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1047,34 +1122,34 @@
         <v>2</v>
       </c>
       <c r="B20">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D20">
         <v>1890</v>
       </c>
       <c r="E20">
-        <v>4222</v>
+        <v>1552</v>
       </c>
       <c r="F20">
-        <v>2032</v>
+        <v>1382</v>
       </c>
       <c r="G20">
-        <v>2190</v>
+        <v>170</v>
       </c>
       <c r="H20">
-        <v>8641</v>
+        <v>9292</v>
       </c>
       <c r="I20">
-        <v>0.48</v>
+        <v>0.89</v>
       </c>
       <c r="J20">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="K20">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1082,34 +1157,34 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C21">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D21">
         <v>1890</v>
       </c>
       <c r="E21">
-        <v>6982</v>
+        <v>1552</v>
       </c>
       <c r="F21">
-        <v>4024</v>
+        <v>1382</v>
       </c>
       <c r="G21">
-        <v>2958</v>
+        <v>170</v>
       </c>
       <c r="H21">
-        <v>6648</v>
+        <v>9291</v>
       </c>
       <c r="I21">
-        <v>0.57999999999999996</v>
+        <v>0.89</v>
       </c>
       <c r="J21">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="K21">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1117,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C22">
         <v>0.5</v>
@@ -1126,19 +1201,19 @@
         <v>1890</v>
       </c>
       <c r="E22">
-        <v>1552</v>
+        <v>1640</v>
       </c>
       <c r="F22">
-        <v>1382</v>
+        <v>1394</v>
       </c>
       <c r="G22">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="H22">
-        <v>9292</v>
+        <v>9277</v>
       </c>
       <c r="I22">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="J22">
         <v>0.13</v>
@@ -1152,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
         <v>0.5</v>
@@ -1161,25 +1236,25 @@
         <v>1890</v>
       </c>
       <c r="E23">
-        <v>1552</v>
+        <v>1936</v>
       </c>
       <c r="F23">
-        <v>1382</v>
+        <v>1496</v>
       </c>
       <c r="G23">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="H23">
-        <v>9291</v>
+        <v>9177</v>
       </c>
       <c r="I23">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="J23">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K23">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1187,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C24">
         <v>0.5</v>
@@ -1196,25 +1271,25 @@
         <v>1890</v>
       </c>
       <c r="E24">
-        <v>1640</v>
+        <v>2054</v>
       </c>
       <c r="F24">
-        <v>1394</v>
+        <v>1538</v>
       </c>
       <c r="G24">
-        <v>246</v>
+        <v>516</v>
       </c>
       <c r="H24">
-        <v>9277</v>
+        <v>9137</v>
       </c>
       <c r="I24">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="J24">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K24">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1222,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C25">
         <v>0.5</v>
@@ -1231,25 +1306,25 @@
         <v>1890</v>
       </c>
       <c r="E25">
-        <v>1936</v>
+        <v>3032</v>
       </c>
       <c r="F25">
-        <v>1496</v>
+        <v>2304</v>
       </c>
       <c r="G25">
-        <v>440</v>
+        <v>728</v>
       </c>
       <c r="H25">
-        <v>9177</v>
+        <v>8368</v>
       </c>
       <c r="I25">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J25">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K25">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1257,34 +1332,34 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D26">
         <v>1890</v>
       </c>
       <c r="E26">
-        <v>2054</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1538</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>9137</v>
+        <v>10672</v>
       </c>
       <c r="I26">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1292,34 +1367,34 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D27">
         <v>1890</v>
       </c>
       <c r="E27">
-        <v>3032</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>8368</v>
+        <v>10674</v>
       </c>
       <c r="I27">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1327,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
         <v>0.6</v>
@@ -1345,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>10672</v>
+        <v>10671</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1362,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C29">
         <v>0.6</v>
@@ -1397,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C30">
         <v>0.6</v>
@@ -1406,19 +1481,19 @@
         <v>1890</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>10671</v>
+        <v>10663</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1432,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C31">
         <v>0.6</v>
@@ -1441,19 +1516,19 @@
         <v>1890</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>10674</v>
+        <v>10659</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1467,28 +1542,28 @@
         <v>2</v>
       </c>
       <c r="B32">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C32">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D32">
         <v>1890</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10663</v>
+        <v>10674</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1502,28 +1577,28 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C33">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D33">
         <v>1890</v>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>10659</v>
+        <v>10672</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1537,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="B34">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
         <v>0.7</v>
@@ -1555,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>10674</v>
+        <v>10672</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1572,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C35">
         <v>0.7</v>
@@ -1590,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>10672</v>
+        <v>10674</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1607,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C36">
         <v>0.7</v>
@@ -1642,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C37">
         <v>0.7</v>
@@ -1660,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>10674</v>
+        <v>10672</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1674,72 +1749,72 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C38">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D38">
         <v>1890</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>6160</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3134</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3026</v>
       </c>
       <c r="H38">
-        <v>10672</v>
+        <v>6754</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C39">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D39">
         <v>1890</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>6160</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3134</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>3026</v>
       </c>
       <c r="H39">
-        <v>10672</v>
+        <v>6754</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1747,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C40">
         <v>0.2</v>
@@ -1756,19 +1831,19 @@
         <v>1890</v>
       </c>
       <c r="E40">
-        <v>6160</v>
+        <v>6330</v>
       </c>
       <c r="F40">
-        <v>3134</v>
+        <v>3174</v>
       </c>
       <c r="G40">
-        <v>3026</v>
+        <v>3156</v>
       </c>
       <c r="H40">
-        <v>6754</v>
+        <v>6714</v>
       </c>
       <c r="I40">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J40">
         <v>0.32</v>
@@ -1782,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C41">
         <v>0.2</v>
@@ -1791,25 +1866,25 @@
         <v>1890</v>
       </c>
       <c r="E41">
-        <v>6160</v>
+        <v>7936</v>
       </c>
       <c r="F41">
-        <v>3134</v>
+        <v>3322</v>
       </c>
       <c r="G41">
-        <v>3026</v>
+        <v>4614</v>
       </c>
       <c r="H41">
-        <v>6754</v>
+        <v>6566</v>
       </c>
       <c r="I41">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="J41">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="K41">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1817,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C42">
         <v>0.2</v>
@@ -1826,25 +1901,25 @@
         <v>1890</v>
       </c>
       <c r="E42">
-        <v>6330</v>
+        <v>8604</v>
       </c>
       <c r="F42">
-        <v>3174</v>
+        <v>3492</v>
       </c>
       <c r="G42">
-        <v>3156</v>
+        <v>5112</v>
       </c>
       <c r="H42">
-        <v>6714</v>
+        <v>6396</v>
       </c>
       <c r="I42">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="J42">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="K42">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1852,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C43">
         <v>0.2</v>
@@ -1861,25 +1936,25 @@
         <v>1890</v>
       </c>
       <c r="E43">
-        <v>7936</v>
+        <v>11148</v>
       </c>
       <c r="F43">
-        <v>3322</v>
+        <v>5312</v>
       </c>
       <c r="G43">
-        <v>4614</v>
+        <v>5836</v>
       </c>
       <c r="H43">
-        <v>6566</v>
+        <v>4576</v>
       </c>
       <c r="I43">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="J43">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="K43">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1887,34 +1962,34 @@
         <v>3</v>
       </c>
       <c r="B44">
+        <v>0.1</v>
+      </c>
+      <c r="C44">
         <v>0.3</v>
       </c>
-      <c r="C44">
-        <v>0.2</v>
-      </c>
       <c r="D44">
         <v>1890</v>
       </c>
       <c r="E44">
-        <v>8604</v>
+        <v>5574</v>
       </c>
       <c r="F44">
-        <v>3492</v>
+        <v>3134</v>
       </c>
       <c r="G44">
-        <v>5112</v>
+        <v>2440</v>
       </c>
       <c r="H44">
-        <v>6396</v>
+        <v>6754</v>
       </c>
       <c r="I44">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J44">
+        <v>0.32</v>
+      </c>
+      <c r="K44">
         <v>0.41</v>
-      </c>
-      <c r="J44">
-        <v>0.35</v>
-      </c>
-      <c r="K44">
-        <v>0.38</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1922,34 +1997,34 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C45">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D45">
         <v>1890</v>
       </c>
       <c r="E45">
-        <v>11148</v>
+        <v>5574</v>
       </c>
       <c r="F45">
-        <v>5312</v>
+        <v>3134</v>
       </c>
       <c r="G45">
-        <v>5836</v>
+        <v>2440</v>
       </c>
       <c r="H45">
-        <v>4576</v>
+        <v>6754</v>
       </c>
       <c r="I45">
-        <v>0.48</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J45">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="K45">
-        <v>0.51</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1957,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C46">
         <v>0.3</v>
@@ -1966,19 +2041,19 @@
         <v>1890</v>
       </c>
       <c r="E46">
-        <v>5574</v>
+        <v>5744</v>
       </c>
       <c r="F46">
-        <v>3134</v>
+        <v>3174</v>
       </c>
       <c r="G46">
-        <v>2440</v>
+        <v>2570</v>
       </c>
       <c r="H46">
-        <v>6754</v>
+        <v>6714</v>
       </c>
       <c r="I46">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J46">
         <v>0.32</v>
@@ -1992,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C47">
         <v>0.3</v>
@@ -2001,25 +2076,25 @@
         <v>1890</v>
       </c>
       <c r="E47">
-        <v>5574</v>
+        <v>7014</v>
       </c>
       <c r="F47">
-        <v>3134</v>
+        <v>3322</v>
       </c>
       <c r="G47">
-        <v>2440</v>
+        <v>3692</v>
       </c>
       <c r="H47">
-        <v>6754</v>
+        <v>6566</v>
       </c>
       <c r="I47">
-        <v>0.56000000000000005</v>
+        <v>0.47</v>
       </c>
       <c r="J47">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="K47">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2027,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C48">
         <v>0.3</v>
@@ -2036,25 +2111,25 @@
         <v>1890</v>
       </c>
       <c r="E48">
-        <v>5744</v>
+        <v>7682</v>
       </c>
       <c r="F48">
-        <v>3174</v>
+        <v>3492</v>
       </c>
       <c r="G48">
-        <v>2570</v>
+        <v>4190</v>
       </c>
       <c r="H48">
-        <v>6714</v>
+        <v>6396</v>
       </c>
       <c r="I48">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="J48">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="K48">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -2062,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="B49">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C49">
         <v>0.3</v>
@@ -2071,25 +2146,25 @@
         <v>1890</v>
       </c>
       <c r="E49">
-        <v>7014</v>
+        <v>10226</v>
       </c>
       <c r="F49">
-        <v>3322</v>
+        <v>5312</v>
       </c>
       <c r="G49">
-        <v>3692</v>
+        <v>4914</v>
       </c>
       <c r="H49">
-        <v>6566</v>
+        <v>4576</v>
       </c>
       <c r="I49">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="J49">
-        <v>0.34</v>
+        <v>0.54</v>
       </c>
       <c r="K49">
-        <v>0.39</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2097,34 +2172,34 @@
         <v>3</v>
       </c>
       <c r="B50">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D50">
         <v>1890</v>
       </c>
       <c r="E50">
-        <v>7682</v>
+        <v>2182</v>
       </c>
       <c r="F50">
-        <v>3492</v>
+        <v>1586</v>
       </c>
       <c r="G50">
-        <v>4190</v>
+        <v>596</v>
       </c>
       <c r="H50">
-        <v>6396</v>
+        <v>8302</v>
       </c>
       <c r="I50">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="J50">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="K50">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2132,34 +2207,34 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D51">
         <v>1890</v>
       </c>
       <c r="E51">
-        <v>10226</v>
+        <v>2182</v>
       </c>
       <c r="F51">
-        <v>5312</v>
+        <v>1586</v>
       </c>
       <c r="G51">
-        <v>4914</v>
+        <v>596</v>
       </c>
       <c r="H51">
-        <v>4576</v>
+        <v>8302</v>
       </c>
       <c r="I51">
-        <v>0.52</v>
+        <v>0.73</v>
       </c>
       <c r="J51">
-        <v>0.54</v>
+        <v>0.16</v>
       </c>
       <c r="K51">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -2167,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C52">
         <v>0.4</v>
@@ -2176,19 +2251,19 @@
         <v>1890</v>
       </c>
       <c r="E52">
-        <v>2182</v>
+        <v>2270</v>
       </c>
       <c r="F52">
-        <v>1586</v>
+        <v>1594</v>
       </c>
       <c r="G52">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="H52">
-        <v>8302</v>
+        <v>8294</v>
       </c>
       <c r="I52">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="J52">
         <v>0.16</v>
@@ -2202,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="B53">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C53">
         <v>0.4</v>
@@ -2211,22 +2286,22 @@
         <v>1890</v>
       </c>
       <c r="E53">
-        <v>2182</v>
+        <v>3234</v>
       </c>
       <c r="F53">
-        <v>1586</v>
+        <v>1694</v>
       </c>
       <c r="G53">
-        <v>596</v>
+        <v>1540</v>
       </c>
       <c r="H53">
-        <v>8302</v>
+        <v>8194</v>
       </c>
       <c r="I53">
-        <v>0.73</v>
+        <v>0.52</v>
       </c>
       <c r="J53">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K53">
         <v>0.26</v>
@@ -2237,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C54">
         <v>0.4</v>
@@ -2246,25 +2321,25 @@
         <v>1890</v>
       </c>
       <c r="E54">
-        <v>2270</v>
+        <v>3740</v>
       </c>
       <c r="F54">
-        <v>1594</v>
+        <v>1864</v>
       </c>
       <c r="G54">
-        <v>676</v>
+        <v>1876</v>
       </c>
       <c r="H54">
-        <v>8294</v>
+        <v>8024</v>
       </c>
       <c r="I54">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J54">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="K54">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -2272,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C55">
         <v>0.4</v>
@@ -2281,25 +2356,25 @@
         <v>1890</v>
       </c>
       <c r="E55">
-        <v>3234</v>
+        <v>6152</v>
       </c>
       <c r="F55">
-        <v>1694</v>
+        <v>3684</v>
       </c>
       <c r="G55">
-        <v>1540</v>
+        <v>2468</v>
       </c>
       <c r="H55">
-        <v>8194</v>
+        <v>6204</v>
       </c>
       <c r="I55">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="J55">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="K55">
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2307,34 +2382,34 @@
         <v>3</v>
       </c>
       <c r="B56">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C56">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D56">
         <v>1890</v>
       </c>
       <c r="E56">
-        <v>3740</v>
+        <v>1504</v>
       </c>
       <c r="F56">
-        <v>1864</v>
+        <v>1342</v>
       </c>
       <c r="G56">
-        <v>1876</v>
+        <v>162</v>
       </c>
       <c r="H56">
-        <v>8024</v>
+        <v>8546</v>
       </c>
       <c r="I56">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="J56">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K56">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2342,34 +2417,34 @@
         <v>3</v>
       </c>
       <c r="B57">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C57">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D57">
         <v>1890</v>
       </c>
       <c r="E57">
-        <v>6152</v>
+        <v>1504</v>
       </c>
       <c r="F57">
-        <v>3684</v>
+        <v>1342</v>
       </c>
       <c r="G57">
-        <v>2468</v>
+        <v>162</v>
       </c>
       <c r="H57">
-        <v>6204</v>
+        <v>8546</v>
       </c>
       <c r="I57">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="J57">
-        <v>0.37</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K57">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -2377,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="B58">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C58">
         <v>0.5</v>
@@ -2386,19 +2461,19 @@
         <v>1890</v>
       </c>
       <c r="E58">
-        <v>1504</v>
+        <v>1584</v>
       </c>
       <c r="F58">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="G58">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="H58">
-        <v>8546</v>
+        <v>8538</v>
       </c>
       <c r="I58">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="J58">
         <v>0.14000000000000001</v>
@@ -2412,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C59">
         <v>0.5</v>
@@ -2421,25 +2496,25 @@
         <v>1890</v>
       </c>
       <c r="E59">
-        <v>1504</v>
+        <v>1874</v>
       </c>
       <c r="F59">
-        <v>1342</v>
+        <v>1450</v>
       </c>
       <c r="G59">
-        <v>162</v>
+        <v>424</v>
       </c>
       <c r="H59">
-        <v>8546</v>
+        <v>8438</v>
       </c>
       <c r="I59">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="J59">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K59">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -2447,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="B60">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C60">
         <v>0.5</v>
@@ -2456,25 +2531,25 @@
         <v>1890</v>
       </c>
       <c r="E60">
-        <v>1584</v>
+        <v>1968</v>
       </c>
       <c r="F60">
-        <v>1350</v>
+        <v>1482</v>
       </c>
       <c r="G60">
-        <v>234</v>
+        <v>486</v>
       </c>
       <c r="H60">
-        <v>8538</v>
+        <v>8406</v>
       </c>
       <c r="I60">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="J60">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K60">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -2482,7 +2557,7 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C61">
         <v>0.5</v>
@@ -2491,25 +2566,25 @@
         <v>1890</v>
       </c>
       <c r="E61">
-        <v>1874</v>
+        <v>2920</v>
       </c>
       <c r="F61">
-        <v>1450</v>
+        <v>2240</v>
       </c>
       <c r="G61">
-        <v>424</v>
+        <v>680</v>
       </c>
       <c r="H61">
-        <v>8438</v>
+        <v>7648</v>
       </c>
       <c r="I61">
         <v>0.77</v>
       </c>
       <c r="J61">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="K61">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -2517,34 +2592,34 @@
         <v>3</v>
       </c>
       <c r="B62">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D62">
         <v>1890</v>
       </c>
       <c r="E62">
-        <v>1968</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1482</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>8406</v>
+        <v>9888</v>
       </c>
       <c r="I62">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -2552,34 +2627,34 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D63">
         <v>1890</v>
       </c>
       <c r="E63">
-        <v>2920</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>2240</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>7648</v>
+        <v>9888</v>
       </c>
       <c r="I63">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -2587,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C64">
         <v>0.6</v>
@@ -2622,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="B65">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C65">
         <v>0.6</v>
@@ -2657,7 +2732,7 @@
         <v>3</v>
       </c>
       <c r="B66">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C66">
         <v>0.6</v>
@@ -2666,19 +2741,19 @@
         <v>1890</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>9888</v>
+        <v>9880</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2692,7 +2767,7 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C67">
         <v>0.6</v>
@@ -2701,19 +2776,19 @@
         <v>1890</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>9888</v>
+        <v>9876</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2727,28 +2802,28 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C68">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D68">
         <v>1890</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>9880</v>
+        <v>9888</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2762,28 +2837,28 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C69">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D69">
         <v>1890</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>9876</v>
+        <v>9888</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2797,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="B70">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C70">
         <v>0.7</v>
@@ -2832,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C71">
         <v>0.7</v>
@@ -2867,7 +2942,7 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C72">
         <v>0.7</v>
@@ -2902,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="B73">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C73">
         <v>0.7</v>
@@ -2934,72 +3009,72 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C74">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D74">
         <v>1890</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>3832</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>2158</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1674</v>
       </c>
       <c r="H74">
-        <v>9888</v>
+        <v>6162</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C75">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D75">
         <v>1890</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>3832</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>2158</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1674</v>
       </c>
       <c r="H75">
-        <v>9888</v>
+        <v>6162</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -3007,7 +3082,7 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C76">
         <v>0.2</v>
@@ -3016,25 +3091,25 @@
         <v>1890</v>
       </c>
       <c r="E76">
-        <v>3832</v>
+        <v>3904</v>
       </c>
       <c r="F76">
         <v>2158</v>
       </c>
       <c r="G76">
-        <v>1674</v>
+        <v>1746</v>
       </c>
       <c r="H76">
         <v>6162</v>
       </c>
       <c r="I76">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J76">
         <v>0.26</v>
       </c>
       <c r="K76">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3042,7 +3117,7 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C77">
         <v>0.2</v>
@@ -3051,25 +3126,25 @@
         <v>1890</v>
       </c>
       <c r="E77">
-        <v>3832</v>
+        <v>5174</v>
       </c>
       <c r="F77">
-        <v>2158</v>
+        <v>2250</v>
       </c>
       <c r="G77">
-        <v>1674</v>
+        <v>2924</v>
       </c>
       <c r="H77">
-        <v>6162</v>
+        <v>6070</v>
       </c>
       <c r="I77">
-        <v>0.56000000000000005</v>
+        <v>0.43</v>
       </c>
       <c r="J77">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K77">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -3077,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="B78">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C78">
         <v>0.2</v>
@@ -3086,25 +3161,25 @@
         <v>1890</v>
       </c>
       <c r="E78">
-        <v>3904</v>
+        <v>5514</v>
       </c>
       <c r="F78">
-        <v>2158</v>
+        <v>2274</v>
       </c>
       <c r="G78">
-        <v>1746</v>
+        <v>3240</v>
       </c>
       <c r="H78">
-        <v>6162</v>
+        <v>6046</v>
       </c>
       <c r="I78">
-        <v>0.55000000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="J78">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K78">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3112,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="B79">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C79">
         <v>0.2</v>
@@ -3121,25 +3196,25 @@
         <v>1890</v>
       </c>
       <c r="E79">
-        <v>5174</v>
+        <v>7710</v>
       </c>
       <c r="F79">
-        <v>2250</v>
+        <v>3856</v>
       </c>
       <c r="G79">
-        <v>2924</v>
+        <v>3854</v>
       </c>
       <c r="H79">
-        <v>6070</v>
+        <v>4464</v>
       </c>
       <c r="I79">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="J79">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="K79">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -3147,34 +3222,34 @@
         <v>4</v>
       </c>
       <c r="B80">
+        <v>0.1</v>
+      </c>
+      <c r="C80">
         <v>0.3</v>
       </c>
-      <c r="C80">
-        <v>0.2</v>
-      </c>
       <c r="D80">
         <v>1890</v>
       </c>
       <c r="E80">
-        <v>5514</v>
+        <v>3672</v>
       </c>
       <c r="F80">
-        <v>2274</v>
+        <v>2158</v>
       </c>
       <c r="G80">
-        <v>3240</v>
+        <v>1514</v>
       </c>
       <c r="H80">
-        <v>6046</v>
+        <v>6162</v>
       </c>
       <c r="I80">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="J80">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="K80">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -3182,34 +3257,34 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C81">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D81">
         <v>1890</v>
       </c>
       <c r="E81">
-        <v>7710</v>
+        <v>3672</v>
       </c>
       <c r="F81">
-        <v>3856</v>
+        <v>2158</v>
       </c>
       <c r="G81">
-        <v>3854</v>
+        <v>1514</v>
       </c>
       <c r="H81">
-        <v>4464</v>
+        <v>6162</v>
       </c>
       <c r="I81">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="J81">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="K81">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -3217,7 +3292,7 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C82">
         <v>0.3</v>
@@ -3226,19 +3301,19 @@
         <v>1890</v>
       </c>
       <c r="E82">
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="F82">
         <v>2158</v>
       </c>
       <c r="G82">
-        <v>1514</v>
+        <v>1586</v>
       </c>
       <c r="H82">
         <v>6162</v>
       </c>
       <c r="I82">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J82">
         <v>0.26</v>
@@ -3252,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C83">
         <v>0.3</v>
@@ -3261,25 +3336,25 @@
         <v>1890</v>
       </c>
       <c r="E83">
-        <v>3672</v>
+        <v>4678</v>
       </c>
       <c r="F83">
-        <v>2158</v>
+        <v>2250</v>
       </c>
       <c r="G83">
-        <v>1514</v>
+        <v>2428</v>
       </c>
       <c r="H83">
-        <v>6162</v>
+        <v>6070</v>
       </c>
       <c r="I83">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="J83">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K83">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -3287,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C84">
         <v>0.3</v>
@@ -3296,25 +3371,25 @@
         <v>1890</v>
       </c>
       <c r="E84">
-        <v>3744</v>
+        <v>5018</v>
       </c>
       <c r="F84">
-        <v>2158</v>
+        <v>2274</v>
       </c>
       <c r="G84">
-        <v>1586</v>
+        <v>2744</v>
       </c>
       <c r="H84">
-        <v>6162</v>
+        <v>6046</v>
       </c>
       <c r="I84">
-        <v>0.57999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="J84">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K84">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -3322,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C85">
         <v>0.3</v>
@@ -3331,25 +3406,25 @@
         <v>1890</v>
       </c>
       <c r="E85">
-        <v>4678</v>
+        <v>7214</v>
       </c>
       <c r="F85">
-        <v>2250</v>
+        <v>3856</v>
       </c>
       <c r="G85">
-        <v>2428</v>
+        <v>3358</v>
       </c>
       <c r="H85">
-        <v>6070</v>
+        <v>4464</v>
       </c>
       <c r="I85">
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="J85">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="K85">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -3357,34 +3432,34 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C86">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D86">
         <v>1890</v>
       </c>
       <c r="E86">
-        <v>5018</v>
+        <v>1532</v>
       </c>
       <c r="F86">
-        <v>2274</v>
+        <v>1150</v>
       </c>
       <c r="G86">
-        <v>2744</v>
+        <v>382</v>
       </c>
       <c r="H86">
-        <v>6046</v>
+        <v>7170</v>
       </c>
       <c r="I86">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="J86">
-        <v>0.27</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K86">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -3392,34 +3467,34 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C87">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D87">
         <v>1890</v>
       </c>
       <c r="E87">
-        <v>7214</v>
+        <v>1532</v>
       </c>
       <c r="F87">
-        <v>3856</v>
+        <v>1150</v>
       </c>
       <c r="G87">
-        <v>3358</v>
+        <v>382</v>
       </c>
       <c r="H87">
-        <v>4464</v>
+        <v>7170</v>
       </c>
       <c r="I87">
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
       <c r="J87">
-        <v>0.46</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K87">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -3427,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C88">
         <v>0.4</v>
@@ -3436,19 +3511,19 @@
         <v>1890</v>
       </c>
       <c r="E88">
-        <v>1532</v>
+        <v>1604</v>
       </c>
       <c r="F88">
         <v>1150</v>
       </c>
       <c r="G88">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="H88">
         <v>7170</v>
       </c>
       <c r="I88">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="J88">
         <v>0.14000000000000001</v>
@@ -3462,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C89">
         <v>0.4</v>
@@ -3471,22 +3546,22 @@
         <v>1890</v>
       </c>
       <c r="E89">
-        <v>1532</v>
+        <v>2538</v>
       </c>
       <c r="F89">
-        <v>1150</v>
+        <v>1242</v>
       </c>
       <c r="G89">
-        <v>382</v>
+        <v>1296</v>
       </c>
       <c r="H89">
-        <v>7170</v>
+        <v>7078</v>
       </c>
       <c r="I89">
-        <v>0.75</v>
+        <v>0.49</v>
       </c>
       <c r="J89">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K89">
         <v>0.23</v>
@@ -3497,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C90">
         <v>0.4</v>
@@ -3506,22 +3581,22 @@
         <v>1890</v>
       </c>
       <c r="E90">
-        <v>1604</v>
+        <v>2734</v>
       </c>
       <c r="F90">
-        <v>1150</v>
+        <v>1266</v>
       </c>
       <c r="G90">
-        <v>454</v>
+        <v>1468</v>
       </c>
       <c r="H90">
-        <v>7170</v>
+        <v>7054</v>
       </c>
       <c r="I90">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="J90">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K90">
         <v>0.23</v>
@@ -3532,7 +3607,7 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C91">
         <v>0.4</v>
@@ -3541,25 +3616,25 @@
         <v>1890</v>
       </c>
       <c r="E91">
-        <v>2538</v>
+        <v>4834</v>
       </c>
       <c r="F91">
-        <v>1242</v>
+        <v>2848</v>
       </c>
       <c r="G91">
-        <v>1296</v>
+        <v>1986</v>
       </c>
       <c r="H91">
-        <v>7078</v>
+        <v>5472</v>
       </c>
       <c r="I91">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="J91">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="K91">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -3567,34 +3642,34 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C92">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D92">
         <v>1890</v>
       </c>
       <c r="E92">
-        <v>2734</v>
+        <v>1170</v>
       </c>
       <c r="F92">
-        <v>1266</v>
+        <v>1022</v>
       </c>
       <c r="G92">
-        <v>1468</v>
+        <v>148</v>
       </c>
       <c r="H92">
-        <v>7054</v>
+        <v>7298</v>
       </c>
       <c r="I92">
-        <v>0.46</v>
+        <v>0.87</v>
       </c>
       <c r="J92">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="K92">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3602,34 +3677,34 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C93">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D93">
         <v>1890</v>
       </c>
       <c r="E93">
-        <v>4834</v>
+        <v>1170</v>
       </c>
       <c r="F93">
-        <v>2848</v>
+        <v>1022</v>
       </c>
       <c r="G93">
-        <v>1986</v>
+        <v>148</v>
       </c>
       <c r="H93">
-        <v>5472</v>
+        <v>7298</v>
       </c>
       <c r="I93">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="J93">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="K93">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -3637,7 +3712,7 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C94">
         <v>0.5</v>
@@ -3646,25 +3721,25 @@
         <v>1890</v>
       </c>
       <c r="E94">
-        <v>1170</v>
+        <v>1242</v>
       </c>
       <c r="F94">
         <v>1022</v>
       </c>
       <c r="G94">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="H94">
         <v>7298</v>
       </c>
       <c r="I94">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="J94">
         <v>0.12</v>
       </c>
       <c r="K94">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -3672,7 +3747,7 @@
         <v>4</v>
       </c>
       <c r="B95">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C95">
         <v>0.5</v>
@@ -3681,25 +3756,25 @@
         <v>1890</v>
       </c>
       <c r="E95">
-        <v>1170</v>
+        <v>1520</v>
       </c>
       <c r="F95">
-        <v>1022</v>
+        <v>1114</v>
       </c>
       <c r="G95">
-        <v>148</v>
+        <v>406</v>
       </c>
       <c r="H95">
-        <v>7298</v>
+        <v>7206</v>
       </c>
       <c r="I95">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="J95">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="K95">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3707,7 +3782,7 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C96">
         <v>0.5</v>
@@ -3716,25 +3791,25 @@
         <v>1890</v>
       </c>
       <c r="E96">
-        <v>1242</v>
+        <v>1594</v>
       </c>
       <c r="F96">
-        <v>1022</v>
+        <v>1138</v>
       </c>
       <c r="G96">
-        <v>220</v>
+        <v>456</v>
       </c>
       <c r="H96">
-        <v>7298</v>
+        <v>7182</v>
       </c>
       <c r="I96">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="J96">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K96">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -3742,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="B97">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C97">
         <v>0.5</v>
@@ -3751,25 +3826,25 @@
         <v>1890</v>
       </c>
       <c r="E97">
-        <v>1520</v>
+        <v>2394</v>
       </c>
       <c r="F97">
-        <v>1114</v>
+        <v>1768</v>
       </c>
       <c r="G97">
-        <v>406</v>
+        <v>626</v>
       </c>
       <c r="H97">
-        <v>7206</v>
+        <v>6552</v>
       </c>
       <c r="I97">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="J97">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="K97">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -3777,34 +3852,34 @@
         <v>4</v>
       </c>
       <c r="B98">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C98">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D98">
         <v>1890</v>
       </c>
       <c r="E98">
-        <v>1594</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1138</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>7182</v>
+        <v>8320</v>
       </c>
       <c r="I98">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -3812,34 +3887,34 @@
         <v>4</v>
       </c>
       <c r="B99">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C99">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D99">
         <v>1890</v>
       </c>
       <c r="E99">
-        <v>2394</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>6552</v>
+        <v>8320</v>
       </c>
       <c r="I99">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -3847,7 +3922,7 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C100">
         <v>0.6</v>
@@ -3882,7 +3957,7 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C101">
         <v>0.6</v>
@@ -3917,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C102">
         <v>0.6</v>
@@ -3926,19 +4001,19 @@
         <v>1890</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>8320</v>
+        <v>8312</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -3952,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C103">
         <v>0.6</v>
@@ -3961,19 +4036,19 @@
         <v>1890</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>8320</v>
+        <v>8308</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -3987,28 +4062,28 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C104">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D104">
         <v>1890</v>
       </c>
       <c r="E104">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>8312</v>
+        <v>8320</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -4022,28 +4097,28 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C105">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D105">
         <v>1890</v>
       </c>
       <c r="E105">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>8308</v>
+        <v>8320</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -4057,7 +4132,7 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C106">
         <v>0.7</v>
@@ -4092,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C107">
         <v>0.7</v>
@@ -4127,7 +4202,7 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C108">
         <v>0.7</v>
@@ -4162,7 +4237,7 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C109">
         <v>0.7</v>
@@ -4194,72 +4269,72 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C110">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D110">
         <v>1890</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>2860</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1946</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="H110">
-        <v>8320</v>
+        <v>5254</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C111">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D111">
         <v>1890</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>2860</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1946</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="H111">
-        <v>8320</v>
+        <v>5254</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
@@ -4267,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="B112">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C112">
         <v>0.2</v>
@@ -4276,25 +4351,25 @@
         <v>1890</v>
       </c>
       <c r="E112">
-        <v>2860</v>
+        <v>2932</v>
       </c>
       <c r="F112">
         <v>1946</v>
       </c>
       <c r="G112">
-        <v>914</v>
+        <v>986</v>
       </c>
       <c r="H112">
         <v>5254</v>
       </c>
       <c r="I112">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="J112">
         <v>0.27</v>
       </c>
       <c r="K112">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
@@ -4302,7 +4377,7 @@
         <v>5</v>
       </c>
       <c r="B113">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C113">
         <v>0.2</v>
@@ -4311,25 +4386,25 @@
         <v>1890</v>
       </c>
       <c r="E113">
-        <v>2860</v>
+        <v>3758</v>
       </c>
       <c r="F113">
-        <v>1946</v>
+        <v>1978</v>
       </c>
       <c r="G113">
-        <v>914</v>
+        <v>1780</v>
       </c>
       <c r="H113">
-        <v>5254</v>
+        <v>5222</v>
       </c>
       <c r="I113">
-        <v>0.68</v>
+        <v>0.53</v>
       </c>
       <c r="J113">
         <v>0.27</v>
       </c>
       <c r="K113">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
@@ -4337,7 +4412,7 @@
         <v>5</v>
       </c>
       <c r="B114">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C114">
         <v>0.2</v>
@@ -4346,25 +4421,25 @@
         <v>1890</v>
       </c>
       <c r="E114">
-        <v>2932</v>
+        <v>3872</v>
       </c>
       <c r="F114">
-        <v>1946</v>
+        <v>1978</v>
       </c>
       <c r="G114">
-        <v>986</v>
+        <v>1894</v>
       </c>
       <c r="H114">
-        <v>5254</v>
+        <v>5222</v>
       </c>
       <c r="I114">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="J114">
         <v>0.27</v>
       </c>
       <c r="K114">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -4372,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="B115">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C115">
         <v>0.2</v>
@@ -4381,25 +4456,25 @@
         <v>1890</v>
       </c>
       <c r="E115">
-        <v>3758</v>
+        <v>5266</v>
       </c>
       <c r="F115">
-        <v>1978</v>
+        <v>3130</v>
       </c>
       <c r="G115">
-        <v>1780</v>
+        <v>2136</v>
       </c>
       <c r="H115">
-        <v>5222</v>
+        <v>4070</v>
       </c>
       <c r="I115">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="J115">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="K115">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
@@ -4407,34 +4482,34 @@
         <v>5</v>
       </c>
       <c r="B116">
+        <v>0.1</v>
+      </c>
+      <c r="C116">
         <v>0.3</v>
       </c>
-      <c r="C116">
-        <v>0.2</v>
-      </c>
       <c r="D116">
         <v>1890</v>
       </c>
       <c r="E116">
-        <v>3872</v>
+        <v>2860</v>
       </c>
       <c r="F116">
-        <v>1978</v>
+        <v>1946</v>
       </c>
       <c r="G116">
-        <v>1894</v>
+        <v>914</v>
       </c>
       <c r="H116">
-        <v>5222</v>
+        <v>5254</v>
       </c>
       <c r="I116">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="J116">
         <v>0.27</v>
       </c>
       <c r="K116">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
@@ -4442,34 +4517,34 @@
         <v>5</v>
       </c>
       <c r="B117">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C117">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D117">
         <v>1890</v>
       </c>
       <c r="E117">
-        <v>5266</v>
+        <v>2860</v>
       </c>
       <c r="F117">
-        <v>3130</v>
+        <v>1946</v>
       </c>
       <c r="G117">
-        <v>2136</v>
+        <v>914</v>
       </c>
       <c r="H117">
-        <v>4070</v>
+        <v>5254</v>
       </c>
       <c r="I117">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="J117">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="K117">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -4477,7 +4552,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -4486,25 +4561,25 @@
         <v>1890</v>
       </c>
       <c r="E118">
-        <v>2860</v>
+        <v>2932</v>
       </c>
       <c r="F118">
         <v>1946</v>
       </c>
       <c r="G118">
-        <v>914</v>
+        <v>986</v>
       </c>
       <c r="H118">
         <v>5254</v>
       </c>
       <c r="I118">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="J118">
         <v>0.27</v>
       </c>
       <c r="K118">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
@@ -4512,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="B119">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C119">
         <v>0.3</v>
@@ -4521,25 +4596,25 @@
         <v>1890</v>
       </c>
       <c r="E119">
-        <v>2860</v>
+        <v>3758</v>
       </c>
       <c r="F119">
-        <v>1946</v>
+        <v>1978</v>
       </c>
       <c r="G119">
-        <v>914</v>
+        <v>1780</v>
       </c>
       <c r="H119">
-        <v>5254</v>
+        <v>5222</v>
       </c>
       <c r="I119">
-        <v>0.68</v>
+        <v>0.53</v>
       </c>
       <c r="J119">
         <v>0.27</v>
       </c>
       <c r="K119">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
@@ -4547,7 +4622,7 @@
         <v>5</v>
       </c>
       <c r="B120">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C120">
         <v>0.3</v>
@@ -4556,25 +4631,25 @@
         <v>1890</v>
       </c>
       <c r="E120">
-        <v>2932</v>
+        <v>3872</v>
       </c>
       <c r="F120">
-        <v>1946</v>
+        <v>1978</v>
       </c>
       <c r="G120">
-        <v>986</v>
+        <v>1894</v>
       </c>
       <c r="H120">
-        <v>5254</v>
+        <v>5222</v>
       </c>
       <c r="I120">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="J120">
         <v>0.27</v>
       </c>
       <c r="K120">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
@@ -4582,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="B121">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C121">
         <v>0.3</v>
@@ -4591,25 +4666,25 @@
         <v>1890</v>
       </c>
       <c r="E121">
-        <v>3758</v>
+        <v>5266</v>
       </c>
       <c r="F121">
-        <v>1978</v>
+        <v>3130</v>
       </c>
       <c r="G121">
-        <v>1780</v>
+        <v>2136</v>
       </c>
       <c r="H121">
-        <v>5222</v>
+        <v>4070</v>
       </c>
       <c r="I121">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="J121">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="K121">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
@@ -4617,34 +4692,34 @@
         <v>5</v>
       </c>
       <c r="B122">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D122">
         <v>1890</v>
       </c>
       <c r="E122">
-        <v>3872</v>
+        <v>1228</v>
       </c>
       <c r="F122">
-        <v>1978</v>
+        <v>938</v>
       </c>
       <c r="G122">
-        <v>1894</v>
+        <v>290</v>
       </c>
       <c r="H122">
-        <v>5222</v>
+        <v>6262</v>
       </c>
       <c r="I122">
-        <v>0.51</v>
+        <v>0.76</v>
       </c>
       <c r="J122">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="K122">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
@@ -4652,34 +4727,34 @@
         <v>5</v>
       </c>
       <c r="B123">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C123">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D123">
         <v>1890</v>
       </c>
       <c r="E123">
-        <v>5266</v>
+        <v>1228</v>
       </c>
       <c r="F123">
-        <v>3130</v>
+        <v>938</v>
       </c>
       <c r="G123">
-        <v>2136</v>
+        <v>290</v>
       </c>
       <c r="H123">
-        <v>4070</v>
+        <v>6262</v>
       </c>
       <c r="I123">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
       <c r="J123">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
       <c r="K123">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -4687,7 +4762,7 @@
         <v>5</v>
       </c>
       <c r="B124">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C124">
         <v>0.4</v>
@@ -4696,19 +4771,19 @@
         <v>1890</v>
       </c>
       <c r="E124">
-        <v>1228</v>
+        <v>1300</v>
       </c>
       <c r="F124">
         <v>938</v>
       </c>
       <c r="G124">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="H124">
         <v>6262</v>
       </c>
       <c r="I124">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="J124">
         <v>0.13</v>
@@ -4722,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="B125">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C125">
         <v>0.4</v>
@@ -4731,25 +4806,25 @@
         <v>1890</v>
       </c>
       <c r="E125">
-        <v>1228</v>
+        <v>2126</v>
       </c>
       <c r="F125">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="G125">
-        <v>290</v>
+        <v>1156</v>
       </c>
       <c r="H125">
-        <v>6262</v>
+        <v>6230</v>
       </c>
       <c r="I125">
-        <v>0.76</v>
+        <v>0.46</v>
       </c>
       <c r="J125">
         <v>0.13</v>
       </c>
       <c r="K125">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
@@ -4757,7 +4832,7 @@
         <v>5</v>
       </c>
       <c r="B126">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C126">
         <v>0.4</v>
@@ -4766,25 +4841,25 @@
         <v>1890</v>
       </c>
       <c r="E126">
-        <v>1300</v>
+        <v>2160</v>
       </c>
       <c r="F126">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="G126">
-        <v>362</v>
+        <v>1190</v>
       </c>
       <c r="H126">
-        <v>6262</v>
+        <v>6230</v>
       </c>
       <c r="I126">
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="J126">
         <v>0.13</v>
       </c>
       <c r="K126">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
@@ -4792,7 +4867,7 @@
         <v>5</v>
       </c>
       <c r="B127">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C127">
         <v>0.4</v>
@@ -4801,25 +4876,25 @@
         <v>1890</v>
       </c>
       <c r="E127">
-        <v>2126</v>
+        <v>3554</v>
       </c>
       <c r="F127">
-        <v>970</v>
+        <v>2122</v>
       </c>
       <c r="G127">
-        <v>1156</v>
+        <v>1432</v>
       </c>
       <c r="H127">
-        <v>6230</v>
+        <v>5078</v>
       </c>
       <c r="I127">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="J127">
-        <v>0.13</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K127">
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
@@ -4827,34 +4902,34 @@
         <v>5</v>
       </c>
       <c r="B128">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C128">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D128">
         <v>1890</v>
       </c>
       <c r="E128">
-        <v>2160</v>
+        <v>884</v>
       </c>
       <c r="F128">
-        <v>970</v>
+        <v>810</v>
       </c>
       <c r="G128">
-        <v>1190</v>
+        <v>74</v>
       </c>
       <c r="H128">
-        <v>6230</v>
+        <v>6390</v>
       </c>
       <c r="I128">
-        <v>0.45</v>
+        <v>0.92</v>
       </c>
       <c r="J128">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="K128">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
@@ -4862,34 +4937,34 @@
         <v>5</v>
       </c>
       <c r="B129">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C129">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D129">
         <v>1890</v>
       </c>
       <c r="E129">
-        <v>3554</v>
+        <v>884</v>
       </c>
       <c r="F129">
-        <v>2122</v>
+        <v>810</v>
       </c>
       <c r="G129">
-        <v>1432</v>
+        <v>74</v>
       </c>
       <c r="H129">
-        <v>5078</v>
+        <v>6390</v>
       </c>
       <c r="I129">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="J129">
-        <v>0.28999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="K129">
-        <v>0.39</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
@@ -4897,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="B130">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C130">
         <v>0.5</v>
@@ -4906,19 +4981,19 @@
         <v>1890</v>
       </c>
       <c r="E130">
-        <v>884</v>
+        <v>956</v>
       </c>
       <c r="F130">
         <v>810</v>
       </c>
       <c r="G130">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="H130">
         <v>6390</v>
       </c>
       <c r="I130">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="J130">
         <v>0.11</v>
@@ -4932,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="B131">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C131">
         <v>0.5</v>
@@ -4941,22 +5016,22 @@
         <v>1890</v>
       </c>
       <c r="E131">
-        <v>884</v>
+        <v>1174</v>
       </c>
       <c r="F131">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="G131">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="H131">
-        <v>6390</v>
+        <v>6358</v>
       </c>
       <c r="I131">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="J131">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K131">
         <v>0.2</v>
@@ -4967,7 +5042,7 @@
         <v>5</v>
       </c>
       <c r="B132">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C132">
         <v>0.5</v>
@@ -4976,22 +5051,22 @@
         <v>1890</v>
       </c>
       <c r="E132">
-        <v>956</v>
+        <v>1208</v>
       </c>
       <c r="F132">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="G132">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="H132">
-        <v>6390</v>
+        <v>6358</v>
       </c>
       <c r="I132">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="J132">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K132">
         <v>0.2</v>
@@ -5002,7 +5077,7 @@
         <v>5</v>
       </c>
       <c r="B133">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C133">
         <v>0.5</v>
@@ -5011,25 +5086,25 @@
         <v>1890</v>
       </c>
       <c r="E133">
-        <v>1174</v>
+        <v>1944</v>
       </c>
       <c r="F133">
-        <v>842</v>
+        <v>1426</v>
       </c>
       <c r="G133">
-        <v>332</v>
+        <v>518</v>
       </c>
       <c r="H133">
-        <v>6358</v>
+        <v>5774</v>
       </c>
       <c r="I133">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="J133">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="K133">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
@@ -5037,34 +5112,34 @@
         <v>5</v>
       </c>
       <c r="B134">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C134">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D134">
         <v>1890</v>
       </c>
       <c r="E134">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>6358</v>
+        <v>7200</v>
       </c>
       <c r="I134">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
@@ -5072,34 +5147,34 @@
         <v>5</v>
       </c>
       <c r="B135">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C135">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D135">
         <v>1890</v>
       </c>
       <c r="E135">
-        <v>1944</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1426</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>5774</v>
+        <v>7200</v>
       </c>
       <c r="I135">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
@@ -5107,7 +5182,7 @@
         <v>5</v>
       </c>
       <c r="B136">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C136">
         <v>0.6</v>
@@ -5142,7 +5217,7 @@
         <v>5</v>
       </c>
       <c r="B137">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C137">
         <v>0.6</v>
@@ -5177,7 +5252,7 @@
         <v>5</v>
       </c>
       <c r="B138">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C138">
         <v>0.6</v>
@@ -5212,7 +5287,7 @@
         <v>5</v>
       </c>
       <c r="B139">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C139">
         <v>0.6</v>
@@ -5247,10 +5322,10 @@
         <v>5</v>
       </c>
       <c r="B140">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C140">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D140">
         <v>1890</v>
@@ -5282,10 +5357,10 @@
         <v>5</v>
       </c>
       <c r="B141">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C141">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D141">
         <v>1890</v>
@@ -5317,7 +5392,7 @@
         <v>5</v>
       </c>
       <c r="B142">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C142">
         <v>0.7</v>
@@ -5352,7 +5427,7 @@
         <v>5</v>
       </c>
       <c r="B143">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C143">
         <v>0.7</v>
@@ -5387,7 +5462,7 @@
         <v>5</v>
       </c>
       <c r="B144">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C144">
         <v>0.7</v>
@@ -5422,7 +5497,7 @@
         <v>5</v>
       </c>
       <c r="B145">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C145">
         <v>0.7</v>
@@ -5454,72 +5529,72 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B146">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C146">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D146">
         <v>1890</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="H146">
-        <v>7200</v>
+        <v>4470</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B147">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C147">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D147">
         <v>1890</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="H147">
-        <v>7200</v>
+        <v>4470</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
@@ -5527,7 +5602,7 @@
         <v>6</v>
       </c>
       <c r="B148">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C148">
         <v>0.2</v>
@@ -5562,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="B149">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C149">
         <v>0.2</v>
@@ -5571,25 +5646,25 @@
         <v>1890</v>
       </c>
       <c r="E149">
-        <v>834</v>
+        <v>1442</v>
       </c>
       <c r="F149">
         <v>690</v>
       </c>
       <c r="G149">
-        <v>144</v>
+        <v>752</v>
       </c>
       <c r="H149">
         <v>4470</v>
       </c>
       <c r="I149">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="J149">
         <v>0.13</v>
       </c>
       <c r="K149">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -5597,7 +5672,7 @@
         <v>6</v>
       </c>
       <c r="B150">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C150">
         <v>0.2</v>
@@ -5606,25 +5681,25 @@
         <v>1890</v>
       </c>
       <c r="E150">
-        <v>834</v>
+        <v>1444</v>
       </c>
       <c r="F150">
         <v>690</v>
       </c>
       <c r="G150">
-        <v>144</v>
+        <v>754</v>
       </c>
       <c r="H150">
         <v>4470</v>
       </c>
       <c r="I150">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="J150">
         <v>0.13</v>
       </c>
       <c r="K150">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
@@ -5632,7 +5707,7 @@
         <v>6</v>
       </c>
       <c r="B151">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C151">
         <v>0.2</v>
@@ -5641,25 +5716,25 @@
         <v>1890</v>
       </c>
       <c r="E151">
-        <v>1442</v>
+        <v>2706</v>
       </c>
       <c r="F151">
-        <v>690</v>
+        <v>1754</v>
       </c>
       <c r="G151">
-        <v>752</v>
+        <v>952</v>
       </c>
       <c r="H151">
-        <v>4470</v>
+        <v>3406</v>
       </c>
       <c r="I151">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="J151">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="K151">
-        <v>0.21</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -5667,34 +5742,34 @@
         <v>6</v>
       </c>
       <c r="B152">
+        <v>0.1</v>
+      </c>
+      <c r="C152">
         <v>0.3</v>
       </c>
-      <c r="C152">
-        <v>0.2</v>
-      </c>
       <c r="D152">
         <v>1890</v>
       </c>
       <c r="E152">
-        <v>1444</v>
+        <v>834</v>
       </c>
       <c r="F152">
         <v>690</v>
       </c>
       <c r="G152">
-        <v>754</v>
+        <v>144</v>
       </c>
       <c r="H152">
         <v>4470</v>
       </c>
       <c r="I152">
-        <v>0.48</v>
+        <v>0.83</v>
       </c>
       <c r="J152">
         <v>0.13</v>
       </c>
       <c r="K152">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -5702,34 +5777,34 @@
         <v>6</v>
       </c>
       <c r="B153">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C153">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D153">
         <v>1890</v>
       </c>
       <c r="E153">
-        <v>2706</v>
+        <v>834</v>
       </c>
       <c r="F153">
-        <v>1754</v>
+        <v>690</v>
       </c>
       <c r="G153">
-        <v>952</v>
+        <v>144</v>
       </c>
       <c r="H153">
-        <v>3406</v>
+        <v>4470</v>
       </c>
       <c r="I153">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="J153">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="K153">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -5737,7 +5812,7 @@
         <v>6</v>
       </c>
       <c r="B154">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C154">
         <v>0.3</v>
@@ -5772,7 +5847,7 @@
         <v>6</v>
       </c>
       <c r="B155">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C155">
         <v>0.3</v>
@@ -5781,25 +5856,25 @@
         <v>1890</v>
       </c>
       <c r="E155">
-        <v>834</v>
+        <v>1442</v>
       </c>
       <c r="F155">
         <v>690</v>
       </c>
       <c r="G155">
-        <v>144</v>
+        <v>752</v>
       </c>
       <c r="H155">
         <v>4470</v>
       </c>
       <c r="I155">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="J155">
         <v>0.13</v>
       </c>
       <c r="K155">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -5807,7 +5882,7 @@
         <v>6</v>
       </c>
       <c r="B156">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C156">
         <v>0.3</v>
@@ -5816,25 +5891,25 @@
         <v>1890</v>
       </c>
       <c r="E156">
-        <v>834</v>
+        <v>1444</v>
       </c>
       <c r="F156">
         <v>690</v>
       </c>
       <c r="G156">
-        <v>144</v>
+        <v>754</v>
       </c>
       <c r="H156">
         <v>4470</v>
       </c>
       <c r="I156">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="J156">
         <v>0.13</v>
       </c>
       <c r="K156">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
@@ -5842,7 +5917,7 @@
         <v>6</v>
       </c>
       <c r="B157">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C157">
         <v>0.3</v>
@@ -5851,25 +5926,25 @@
         <v>1890</v>
       </c>
       <c r="E157">
-        <v>1442</v>
+        <v>2706</v>
       </c>
       <c r="F157">
-        <v>690</v>
+        <v>1754</v>
       </c>
       <c r="G157">
-        <v>752</v>
+        <v>952</v>
       </c>
       <c r="H157">
-        <v>4470</v>
+        <v>3406</v>
       </c>
       <c r="I157">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="J157">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="K157">
-        <v>0.21</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
@@ -5877,34 +5952,34 @@
         <v>6</v>
       </c>
       <c r="B158">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C158">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D158">
         <v>1890</v>
       </c>
       <c r="E158">
-        <v>1444</v>
+        <v>834</v>
       </c>
       <c r="F158">
         <v>690</v>
       </c>
       <c r="G158">
-        <v>754</v>
+        <v>144</v>
       </c>
       <c r="H158">
         <v>4470</v>
       </c>
       <c r="I158">
-        <v>0.48</v>
+        <v>0.83</v>
       </c>
       <c r="J158">
         <v>0.13</v>
       </c>
       <c r="K158">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -5912,34 +5987,34 @@
         <v>6</v>
       </c>
       <c r="B159">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C159">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D159">
         <v>1890</v>
       </c>
       <c r="E159">
-        <v>2706</v>
+        <v>834</v>
       </c>
       <c r="F159">
-        <v>1754</v>
+        <v>690</v>
       </c>
       <c r="G159">
-        <v>952</v>
+        <v>144</v>
       </c>
       <c r="H159">
-        <v>3406</v>
+        <v>4470</v>
       </c>
       <c r="I159">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="J159">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="K159">
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -5947,7 +6022,7 @@
         <v>6</v>
       </c>
       <c r="B160">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C160">
         <v>0.4</v>
@@ -5982,7 +6057,7 @@
         <v>6</v>
       </c>
       <c r="B161">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C161">
         <v>0.4</v>
@@ -5991,25 +6066,25 @@
         <v>1890</v>
       </c>
       <c r="E161">
-        <v>834</v>
+        <v>1442</v>
       </c>
       <c r="F161">
         <v>690</v>
       </c>
       <c r="G161">
-        <v>144</v>
+        <v>752</v>
       </c>
       <c r="H161">
         <v>4470</v>
       </c>
       <c r="I161">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="J161">
         <v>0.13</v>
       </c>
       <c r="K161">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -6017,7 +6092,7 @@
         <v>6</v>
       </c>
       <c r="B162">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C162">
         <v>0.4</v>
@@ -6026,25 +6101,25 @@
         <v>1890</v>
       </c>
       <c r="E162">
-        <v>834</v>
+        <v>1444</v>
       </c>
       <c r="F162">
         <v>690</v>
       </c>
       <c r="G162">
-        <v>144</v>
+        <v>754</v>
       </c>
       <c r="H162">
         <v>4470</v>
       </c>
       <c r="I162">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="J162">
         <v>0.13</v>
       </c>
       <c r="K162">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
@@ -6052,7 +6127,7 @@
         <v>6</v>
       </c>
       <c r="B163">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C163">
         <v>0.4</v>
@@ -6061,25 +6136,25 @@
         <v>1890</v>
       </c>
       <c r="E163">
-        <v>1442</v>
+        <v>2706</v>
       </c>
       <c r="F163">
-        <v>690</v>
+        <v>1754</v>
       </c>
       <c r="G163">
-        <v>752</v>
+        <v>952</v>
       </c>
       <c r="H163">
-        <v>4470</v>
+        <v>3406</v>
       </c>
       <c r="I163">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="J163">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="K163">
-        <v>0.21</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
@@ -6087,34 +6162,34 @@
         <v>6</v>
       </c>
       <c r="B164">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C164">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D164">
         <v>1890</v>
       </c>
       <c r="E164">
-        <v>1444</v>
+        <v>690</v>
       </c>
       <c r="F164">
         <v>690</v>
       </c>
       <c r="G164">
-        <v>754</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>4470</v>
       </c>
       <c r="I164">
-        <v>0.48</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0.13</v>
       </c>
       <c r="K164">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -6122,34 +6197,34 @@
         <v>6</v>
       </c>
       <c r="B165">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C165">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D165">
         <v>1890</v>
       </c>
       <c r="E165">
-        <v>2706</v>
+        <v>690</v>
       </c>
       <c r="F165">
-        <v>1754</v>
+        <v>690</v>
       </c>
       <c r="G165">
-        <v>952</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>3406</v>
+        <v>4470</v>
       </c>
       <c r="I165">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="J165">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="K165">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
@@ -6157,7 +6232,7 @@
         <v>6</v>
       </c>
       <c r="B166">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C166">
         <v>0.5</v>
@@ -6192,7 +6267,7 @@
         <v>6</v>
       </c>
       <c r="B167">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C167">
         <v>0.5</v>
@@ -6227,7 +6302,7 @@
         <v>6</v>
       </c>
       <c r="B168">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C168">
         <v>0.5</v>
@@ -6236,13 +6311,13 @@
         <v>1890</v>
       </c>
       <c r="E168">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F168">
         <v>690</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H168">
         <v>4470</v>
@@ -6262,7 +6337,7 @@
         <v>6</v>
       </c>
       <c r="B169">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C169">
         <v>0.5</v>
@@ -6271,25 +6346,25 @@
         <v>1890</v>
       </c>
       <c r="E169">
-        <v>690</v>
+        <v>1296</v>
       </c>
       <c r="F169">
-        <v>690</v>
+        <v>1186</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H169">
-        <v>4470</v>
+        <v>3974</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="J169">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="K169">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
@@ -6297,34 +6372,34 @@
         <v>6</v>
       </c>
       <c r="B170">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C170">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D170">
         <v>1890</v>
       </c>
       <c r="E170">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>4470</v>
+        <v>5160</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K170">
-        <v>0.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -6332,34 +6407,34 @@
         <v>6</v>
       </c>
       <c r="B171">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C171">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D171">
         <v>1890</v>
       </c>
       <c r="E171">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1186</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>3974</v>
+        <v>5160</v>
       </c>
       <c r="I171">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>0.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
@@ -6367,7 +6442,7 @@
         <v>6</v>
       </c>
       <c r="B172">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C172">
         <v>0.6</v>
@@ -6402,7 +6477,7 @@
         <v>6</v>
       </c>
       <c r="B173">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C173">
         <v>0.6</v>
@@ -6437,7 +6512,7 @@
         <v>6</v>
       </c>
       <c r="B174">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C174">
         <v>0.6</v>
@@ -6472,7 +6547,7 @@
         <v>6</v>
       </c>
       <c r="B175">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C175">
         <v>0.6</v>
@@ -6507,10 +6582,10 @@
         <v>6</v>
       </c>
       <c r="B176">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C176">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D176">
         <v>1890</v>
@@ -6537,15 +6612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>6</v>
       </c>
       <c r="B177">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C177">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D177">
         <v>1890</v>
@@ -6572,12 +6647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>6</v>
       </c>
       <c r="B178">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C178">
         <v>0.7</v>
@@ -6607,12 +6682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>6</v>
       </c>
       <c r="B179">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C179">
         <v>0.7</v>
@@ -6642,12 +6717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>6</v>
       </c>
       <c r="B180">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C180">
         <v>0.7</v>
@@ -6677,12 +6752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>6</v>
       </c>
       <c r="B181">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C181">
         <v>0.7</v>
@@ -6712,82 +6787,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B182">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C182">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D182">
         <v>1890</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>5160</v>
+        <v>3536</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+      <c r="M182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B183">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C183">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D183">
         <v>1890</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="G183">
         <v>0</v>
       </c>
       <c r="H183">
-        <v>5160</v>
+        <v>3536</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7</v>
       </c>
       <c r="B184">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C184">
         <v>0.2</v>
@@ -6817,12 +6895,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>7</v>
       </c>
       <c r="B185">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C185">
         <v>0.2</v>
@@ -6852,12 +6930,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>7</v>
       </c>
       <c r="B186">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C186">
         <v>0.2</v>
@@ -6887,12 +6965,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>7</v>
       </c>
       <c r="B187">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C187">
         <v>0.2</v>
@@ -6901,36 +6979,36 @@
         <v>1890</v>
       </c>
       <c r="E187">
-        <v>546</v>
+        <v>1114</v>
       </c>
       <c r="F187">
-        <v>546</v>
+        <v>1042</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H187">
-        <v>3536</v>
+        <v>3040</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="J187">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="K187">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>7</v>
       </c>
       <c r="B188">
+        <v>0.1</v>
+      </c>
+      <c r="C188">
         <v>0.3</v>
-      </c>
-      <c r="C188">
-        <v>0.2</v>
       </c>
       <c r="D188">
         <v>1890</v>
@@ -6957,47 +7035,47 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
       <c r="B189">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C189">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D189">
         <v>1890</v>
       </c>
       <c r="E189">
-        <v>1114</v>
+        <v>546</v>
       </c>
       <c r="F189">
-        <v>1042</v>
+        <v>546</v>
       </c>
       <c r="G189">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>3040</v>
+        <v>3536</v>
       </c>
       <c r="I189">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="J189">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="K189">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>7</v>
       </c>
       <c r="B190">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C190">
         <v>0.3</v>
@@ -7027,12 +7105,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>7</v>
       </c>
       <c r="B191">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C191">
         <v>0.3</v>
@@ -7062,12 +7140,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>7</v>
       </c>
       <c r="B192">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C192">
         <v>0.3</v>
@@ -7102,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="B193">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C193">
         <v>0.3</v>
@@ -7111,25 +7189,25 @@
         <v>1890</v>
       </c>
       <c r="E193">
-        <v>546</v>
+        <v>1114</v>
       </c>
       <c r="F193">
-        <v>546</v>
+        <v>1042</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H193">
-        <v>3536</v>
+        <v>3040</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="J193">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="K193">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
@@ -7137,10 +7215,10 @@
         <v>7</v>
       </c>
       <c r="B194">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D194">
         <v>1890</v>
@@ -7172,34 +7250,34 @@
         <v>7</v>
       </c>
       <c r="B195">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D195">
         <v>1890</v>
       </c>
       <c r="E195">
-        <v>1114</v>
+        <v>546</v>
       </c>
       <c r="F195">
-        <v>1042</v>
+        <v>546</v>
       </c>
       <c r="G195">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>3040</v>
+        <v>3536</v>
       </c>
       <c r="I195">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="J195">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="K195">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -7207,7 +7285,7 @@
         <v>7</v>
       </c>
       <c r="B196">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C196">
         <v>0.4</v>
@@ -7242,7 +7320,7 @@
         <v>7</v>
       </c>
       <c r="B197">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C197">
         <v>0.4</v>
@@ -7277,7 +7355,7 @@
         <v>7</v>
       </c>
       <c r="B198">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C198">
         <v>0.4</v>
@@ -7312,7 +7390,7 @@
         <v>7</v>
       </c>
       <c r="B199">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C199">
         <v>0.4</v>
@@ -7321,25 +7399,25 @@
         <v>1890</v>
       </c>
       <c r="E199">
-        <v>546</v>
+        <v>1114</v>
       </c>
       <c r="F199">
-        <v>546</v>
+        <v>1042</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H199">
-        <v>3536</v>
+        <v>3040</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="J199">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="K199">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
@@ -7347,10 +7425,10 @@
         <v>7</v>
       </c>
       <c r="B200">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C200">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D200">
         <v>1890</v>
@@ -7382,34 +7460,34 @@
         <v>7</v>
       </c>
       <c r="B201">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C201">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D201">
         <v>1890</v>
       </c>
       <c r="E201">
-        <v>1114</v>
+        <v>546</v>
       </c>
       <c r="F201">
-        <v>1042</v>
+        <v>546</v>
       </c>
       <c r="G201">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>3040</v>
+        <v>3536</v>
       </c>
       <c r="I201">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="J201">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="K201">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
@@ -7417,7 +7495,7 @@
         <v>7</v>
       </c>
       <c r="B202">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C202">
         <v>0.5</v>
@@ -7452,7 +7530,7 @@
         <v>7</v>
       </c>
       <c r="B203">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C203">
         <v>0.5</v>
@@ -7482,77 +7560,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>7</v>
-      </c>
-      <c r="B204">
-        <v>0.2</v>
-      </c>
-      <c r="C204">
-        <v>0.5</v>
-      </c>
-      <c r="D204">
-        <v>1890</v>
-      </c>
-      <c r="E204">
-        <v>546</v>
-      </c>
-      <c r="F204">
-        <v>546</v>
-      </c>
-      <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="H204">
-        <v>3536</v>
-      </c>
-      <c r="I204">
-        <v>1</v>
-      </c>
-      <c r="J204">
-        <v>0.13</v>
-      </c>
-      <c r="K204">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>7</v>
-      </c>
-      <c r="B205">
-        <v>0.25</v>
-      </c>
-      <c r="C205">
-        <v>0.5</v>
-      </c>
-      <c r="D205">
-        <v>1890</v>
-      </c>
-      <c r="E205">
-        <v>546</v>
-      </c>
-      <c r="F205">
-        <v>546</v>
-      </c>
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>3536</v>
-      </c>
-      <c r="I205">
-        <v>1</v>
-      </c>
-      <c r="J205">
-        <v>0.13</v>
-      </c>
-      <c r="K205">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="256" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
